--- a/btp_dati.xlsx
+++ b/btp_dati.xlsx
@@ -478,9 +478,6 @@
           <t>Btp-1nv26      7,25%</t>
         </is>
       </c>
-      <c r="C2" t="n">
-        <v>106.23</v>
-      </c>
       <c r="D2" t="n">
         <v>3.625</v>
       </c>
@@ -501,9 +498,6 @@
           <t>Btp-1nv27       6,5%</t>
         </is>
       </c>
-      <c r="C3" t="n">
-        <v>109.25</v>
-      </c>
       <c r="D3" t="n">
         <v>3.25</v>
       </c>
@@ -524,9 +518,6 @@
           <t>Btp-1nv29      5,25%</t>
         </is>
       </c>
-      <c r="C4" t="n">
-        <v>110.91</v>
-      </c>
       <c r="D4" t="n">
         <v>2.625</v>
       </c>
@@ -547,9 +538,6 @@
           <t>Btp-1mg31         6%</t>
         </is>
       </c>
-      <c r="C5" t="n">
-        <v>116.77</v>
-      </c>
       <c r="D5" t="n">
         <v>3</v>
       </c>
@@ -570,9 +558,6 @@
           <t>Btp-1fb33      5,75%</t>
         </is>
       </c>
-      <c r="C6" t="n">
-        <v>117.02</v>
-      </c>
       <c r="D6" t="n">
         <v>2.875</v>
       </c>
@@ -593,9 +578,6 @@
           <t>Btp-1ag34         5%</t>
         </is>
       </c>
-      <c r="C7" t="n">
-        <v>112.55</v>
-      </c>
       <c r="D7" t="n">
         <v>2.5</v>
       </c>
@@ -616,9 +598,6 @@
           <t>Btpi-15st35    2,35%</t>
         </is>
       </c>
-      <c r="C8" t="n">
-        <v>107.07</v>
-      </c>
       <c r="D8" t="n">
         <v>1.175</v>
       </c>
@@ -639,9 +618,6 @@
           <t>Btp-1fb37         4%</t>
         </is>
       </c>
-      <c r="C9" t="n">
-        <v>103.57</v>
-      </c>
       <c r="D9" t="n">
         <v>2</v>
       </c>
@@ -662,9 +638,6 @@
           <t>Btp-1ag39         5%</t>
         </is>
       </c>
-      <c r="C10" t="n">
-        <v>112.44</v>
-      </c>
       <c r="D10" t="n">
         <v>2.5</v>
       </c>
@@ -685,9 +658,6 @@
           <t>Btp-1st40 5%</t>
         </is>
       </c>
-      <c r="C11" t="n">
-        <v>112.25</v>
-      </c>
       <c r="D11" t="n">
         <v>2.5</v>
       </c>
@@ -708,9 +678,6 @@
           <t>Btpi-15st41 2,55%</t>
         </is>
       </c>
-      <c r="C12" t="n">
-        <v>106.05</v>
-      </c>
       <c r="D12" t="n">
         <v>1.275</v>
       </c>
@@ -731,9 +698,6 @@
           <t>Btp-1mz26 4,5%</t>
         </is>
       </c>
-      <c r="C13" t="n">
-        <v>101.307</v>
-      </c>
       <c r="D13" t="n">
         <v>2.25</v>
       </c>
@@ -754,9 +718,6 @@
           <t>Btpi-15st26 3,1%</t>
         </is>
       </c>
-      <c r="C14" t="n">
-        <v>102.86</v>
-      </c>
       <c r="D14" t="n">
         <v>1.55</v>
       </c>
@@ -777,9 +738,6 @@
           <t>Btp Coupon Strip Zc Nv26 Eur</t>
         </is>
       </c>
-      <c r="C15" t="n">
-        <v>97.79000000000001</v>
-      </c>
       <c r="E15" t="inlineStr">
         <is>
           <t>01-11-26</t>
@@ -797,9 +755,6 @@
           <t>Btp Coupon Strip Zc Nv27 Eur</t>
         </is>
       </c>
-      <c r="C16" t="n">
-        <v>95.34999999999999</v>
-      </c>
       <c r="E16" t="inlineStr">
         <is>
           <t>01-11-27</t>
@@ -817,9 +772,6 @@
           <t>Btp Coupon Strip Zc Nv29 Eur</t>
         </is>
       </c>
-      <c r="C17" t="n">
-        <v>89.98</v>
-      </c>
       <c r="E17" t="inlineStr">
         <is>
           <t>01-11-29</t>
@@ -837,9 +789,6 @@
           <t>Btp Coupon Strip Zc Mg31 Eur</t>
         </is>
       </c>
-      <c r="C18" t="n">
-        <v>84.97</v>
-      </c>
       <c r="E18" t="inlineStr">
         <is>
           <t>01-05-31</t>
@@ -908,9 +857,6 @@
           <t>Btp Tf 4,75% St28 Eur</t>
         </is>
       </c>
-      <c r="C22" t="n">
-        <v>107.03</v>
-      </c>
       <c r="D22" t="n">
         <v>2.375</v>
       </c>
@@ -931,9 +877,6 @@
           <t>Btp Tf 4,75% St44 Eur</t>
         </is>
       </c>
-      <c r="C23" t="n">
-        <v>108.46</v>
-      </c>
       <c r="D23" t="n">
         <v>2.375</v>
       </c>
@@ -954,9 +897,6 @@
           <t>Btp Coupon Strip Zc St28 Eur</t>
         </is>
       </c>
-      <c r="C24" t="n">
-        <v>93.19</v>
-      </c>
       <c r="E24" t="inlineStr">
         <is>
           <t>01-09-28</t>
@@ -974,9 +914,6 @@
           <t>Btp Coupon Strip Zc Mz30 Eur</t>
         </is>
       </c>
-      <c r="C25" t="n">
-        <v>89.15000000000001</v>
-      </c>
       <c r="E25" t="inlineStr">
         <is>
           <t>01-03-30</t>
@@ -1079,9 +1016,6 @@
           <t>Btp Tf 3,50% Mz30 Eur</t>
         </is>
       </c>
-      <c r="C31" t="n">
-        <v>103.94</v>
-      </c>
       <c r="D31" t="n">
         <v>1.75</v>
       </c>
@@ -1102,9 +1036,6 @@
           <t>Btp Tf 3,25% St46 Eur</t>
         </is>
       </c>
-      <c r="C32" t="n">
-        <v>86.95999999999999</v>
-      </c>
       <c r="D32" t="n">
         <v>1.625</v>
       </c>
@@ -1125,9 +1056,6 @@
           <t>Btp Tf 1,65% Mz32 Eur</t>
         </is>
       </c>
-      <c r="C33" t="n">
-        <v>92.09999999999999</v>
-      </c>
       <c r="D33" t="n">
         <v>0.825</v>
       </c>
@@ -1148,9 +1076,6 @@
           <t>Btp Tf 2,00% Dc25 Eur</t>
         </is>
       </c>
-      <c r="C34" t="n">
-        <v>100.004</v>
-      </c>
       <c r="D34" t="n">
         <v>1</v>
       </c>
@@ -1171,9 +1096,6 @@
           <t>Btpi Tf 1,25% St32 Eur</t>
         </is>
       </c>
-      <c r="C35" t="n">
-        <v>99.81999999999999</v>
-      </c>
       <c r="D35" t="n">
         <v>0.625</v>
       </c>
@@ -1194,9 +1116,6 @@
           <t>Btp Tf 2,7% Mz47 Eur</t>
         </is>
       </c>
-      <c r="C36" t="n">
-        <v>79.05</v>
-      </c>
       <c r="D36" t="n">
         <v>1.35</v>
       </c>
@@ -1217,9 +1136,6 @@
           <t>Btp Tf 1,60% Gn26 Eur</t>
         </is>
       </c>
-      <c r="C37" t="n">
-        <v>99.76000000000001</v>
-      </c>
       <c r="D37" t="n">
         <v>0.8</v>
       </c>
@@ -1240,9 +1156,6 @@
           <t>Btp Tf 2,25% St36 Eur</t>
         </is>
       </c>
-      <c r="C38" t="n">
-        <v>87.88</v>
-      </c>
       <c r="D38" t="n">
         <v>1.125</v>
       </c>
@@ -1263,9 +1176,6 @@
           <t>Btp Tf 1.25% Dc26 Eur</t>
         </is>
       </c>
-      <c r="C39" t="n">
-        <v>99.06</v>
-      </c>
       <c r="D39" t="n">
         <v>0.625</v>
       </c>
@@ -1286,9 +1196,6 @@
           <t>Btp Tf 2,8% Mz67 Eur</t>
         </is>
       </c>
-      <c r="C40" t="n">
-        <v>69.73999999999999</v>
-      </c>
       <c r="D40" t="n">
         <v>1.4</v>
       </c>
@@ -1309,9 +1216,6 @@
           <t>Btp Tf 2,45% St33 Eur</t>
         </is>
       </c>
-      <c r="C41" t="n">
-        <v>94.61</v>
-      </c>
       <c r="D41" t="n">
         <v>1.225</v>
       </c>
@@ -1332,9 +1236,6 @@
           <t>Btp Tf 2,20% Gn27 Eur</t>
         </is>
       </c>
-      <c r="C42" t="n">
-        <v>100.29</v>
-      </c>
       <c r="D42" t="n">
         <v>1.1</v>
       </c>
@@ -1355,9 +1256,6 @@
           <t>Btpi Tf 1,30% Mg28 Eur</t>
         </is>
       </c>
-      <c r="C43" t="n">
-        <v>101.36</v>
-      </c>
       <c r="D43" t="n">
         <v>0.65</v>
       </c>
@@ -1378,9 +1276,6 @@
           <t>Btp Tf 3,45% Mz48 Eur</t>
         </is>
       </c>
-      <c r="C44" t="n">
-        <v>88.90000000000001</v>
-      </c>
       <c r="D44" t="n">
         <v>1.725</v>
       </c>
@@ -1401,9 +1296,6 @@
           <t>Btp Tf 2,05% Ag27 Eur</t>
         </is>
       </c>
-      <c r="C45" t="n">
-        <v>99.94</v>
-      </c>
       <c r="D45" t="n">
         <v>1.025</v>
       </c>
@@ -1424,9 +1316,6 @@
           <t>Btp Tf 2,95% St38 Eur</t>
         </is>
       </c>
-      <c r="C46" t="n">
-        <v>91.55</v>
-      </c>
       <c r="D46" t="n">
         <v>1.475</v>
       </c>
@@ -1447,9 +1336,6 @@
           <t>Btp Tf 2,00% Fb28 Eur</t>
         </is>
       </c>
-      <c r="C47" t="n">
-        <v>99.66</v>
-      </c>
       <c r="D47" t="n">
         <v>1</v>
       </c>
@@ -1470,9 +1356,6 @@
           <t>Btp Italia Mg26 Eur</t>
         </is>
       </c>
-      <c r="C48" t="n">
-        <v>99.879</v>
-      </c>
       <c r="D48" t="n">
         <v>0.275</v>
       </c>
@@ -1493,9 +1376,6 @@
           <t>Btp Tf 2,80% Dc28 Eur</t>
         </is>
       </c>
-      <c r="C49" t="n">
-        <v>101.55</v>
-      </c>
       <c r="D49" t="n">
         <v>1.4</v>
       </c>
@@ -1516,9 +1396,6 @@
           <t>Btp Tf 2.50% Nv25 Eur</t>
         </is>
       </c>
-      <c r="C50" t="n">
-        <v>100.107</v>
-      </c>
       <c r="D50" t="n">
         <v>1.25</v>
       </c>
@@ -1539,9 +1416,6 @@
           <t>Btp Tf 3,35% Mz35 Eur</t>
         </is>
       </c>
-      <c r="C51" t="n">
-        <v>99.45999999999999</v>
-      </c>
       <c r="D51" t="n">
         <v>1.675</v>
       </c>
@@ -1562,9 +1436,6 @@
           <t>Btp Tf 3,85% St49 Eur</t>
         </is>
       </c>
-      <c r="C52" t="n">
-        <v>94.02</v>
-      </c>
       <c r="D52" t="n">
         <v>1.925</v>
       </c>
@@ -1585,9 +1456,6 @@
           <t>Btp Tf 3,00% Ag29 Eur</t>
         </is>
       </c>
-      <c r="C53" t="n">
-        <v>101.95</v>
-      </c>
       <c r="D53" t="n">
         <v>1.5</v>
       </c>
@@ -1608,9 +1476,6 @@
           <t>Btp Tf 2,10% Lg26 Eur</t>
         </is>
       </c>
-      <c r="C54" t="n">
-        <v>100.095</v>
-      </c>
       <c r="D54" t="n">
         <v>1.05</v>
       </c>
@@ -1631,9 +1496,6 @@
           <t>Btp Tf 3,1% Mz40 Eur</t>
         </is>
       </c>
-      <c r="C55" t="n">
-        <v>91.09999999999999</v>
-      </c>
       <c r="D55" t="n">
         <v>1.55</v>
       </c>
@@ -1654,9 +1516,6 @@
           <t>Btp Tf 1,35% Ap30 Eur</t>
         </is>
       </c>
-      <c r="C56" t="n">
-        <v>94.5</v>
-      </c>
       <c r="D56" t="n">
         <v>0.675</v>
       </c>
@@ -1677,9 +1536,6 @@
           <t>Btpi Tf 0,4% Mg30 Eur</t>
         </is>
       </c>
-      <c r="C57" t="n">
-        <v>97.02</v>
-      </c>
       <c r="D57" t="n">
         <v>0.2</v>
       </c>
@@ -1700,9 +1556,6 @@
           <t>Btp Italia Ot27 Eur</t>
         </is>
       </c>
-      <c r="C58" t="n">
-        <v>99.8</v>
-      </c>
       <c r="D58" t="n">
         <v>0.325</v>
       </c>
@@ -1723,9 +1576,6 @@
           <t>Btp Tf 0,85% Ge27 Eur</t>
         </is>
       </c>
-      <c r="C59" t="n">
-        <v>98.45999999999999</v>
-      </c>
       <c r="D59" t="n">
         <v>0.425</v>
       </c>
@@ -1746,9 +1596,6 @@
           <t>Btp Tf 2,45% St50 Eur</t>
         </is>
       </c>
-      <c r="C60" t="n">
-        <v>72.03</v>
-      </c>
       <c r="D60" t="n">
         <v>1.225</v>
       </c>
@@ -1769,9 +1616,6 @@
           <t>Btp Tf 1,45% Mz36 Eur</t>
         </is>
       </c>
-      <c r="C61" t="n">
-        <v>81.5</v>
-      </c>
       <c r="D61" t="n">
         <v>0.725</v>
       </c>
@@ -1792,9 +1636,6 @@
           <t>Btp Tf 0,95% Ag30 Eur</t>
         </is>
       </c>
-      <c r="C62" t="n">
-        <v>91.97</v>
-      </c>
       <c r="D62" t="n">
         <v>0.475</v>
       </c>
@@ -1815,9 +1656,6 @@
           <t>Btp Tf 1,65% Dc30 Eur</t>
         </is>
       </c>
-      <c r="C63" t="n">
-        <v>94.53</v>
-      </c>
       <c r="D63" t="n">
         <v>0.825</v>
       </c>
@@ -1838,9 +1676,6 @@
           <t>Btp Futura Lg30 Eur</t>
         </is>
       </c>
-      <c r="C64" t="n">
-        <v>93.92</v>
-      </c>
       <c r="D64" t="n">
         <v>0.65</v>
       </c>
@@ -1861,9 +1696,6 @@
           <t>Btpi Tf 0,65% Mg26 Eur</t>
         </is>
       </c>
-      <c r="C65" t="n">
-        <v>99.476</v>
-      </c>
       <c r="D65" t="n">
         <v>0.325</v>
       </c>
@@ -1884,9 +1716,6 @@
           <t>Btp Tf 0,95% St27 Eur</t>
         </is>
       </c>
-      <c r="C66" t="n">
-        <v>97.69</v>
-      </c>
       <c r="D66" t="n">
         <v>0.475</v>
       </c>
@@ -1907,9 +1736,6 @@
           <t>Btp Tf 0,50% Fb26 Eur</t>
         </is>
       </c>
-      <c r="C67" t="n">
-        <v>99.355</v>
-      </c>
       <c r="D67" t="n">
         <v>0.25</v>
       </c>
@@ -1930,9 +1756,6 @@
           <t>Btp Tf 1,8% Mz41 Eur</t>
         </is>
       </c>
-      <c r="C68" t="n">
-        <v>74.87</v>
-      </c>
       <c r="D68" t="n">
         <v>0.9</v>
       </c>
@@ -1953,9 +1776,6 @@
           <t>Btp Tf 0,90% Ap31 Eur</t>
         </is>
       </c>
-      <c r="C69" t="n">
-        <v>90</v>
-      </c>
       <c r="D69" t="n">
         <v>0.45</v>
       </c>
@@ -1976,9 +1796,6 @@
           <t>Btp Tf 1,7% St51 Eur</t>
         </is>
       </c>
-      <c r="C70" t="n">
-        <v>60.18</v>
-      </c>
       <c r="D70" t="n">
         <v>0.85</v>
       </c>
@@ -1999,9 +1816,6 @@
           <t>Btp Futura Nv28 Eur</t>
         </is>
       </c>
-      <c r="C71" t="n">
-        <v>95.18000000000001</v>
-      </c>
       <c r="D71" t="n">
         <v>0.3</v>
       </c>
@@ -2022,9 +1836,6 @@
           <t>Btp Tf 0,95% Mz37 Eur</t>
         </is>
       </c>
-      <c r="C72" t="n">
-        <v>74.63</v>
-      </c>
       <c r="D72" t="n">
         <v>0.475</v>
       </c>
@@ -2045,9 +1856,6 @@
           <t>Btp Tf 0,25% Mz28 Eur</t>
         </is>
       </c>
-      <c r="C73" t="n">
-        <v>95.16</v>
-      </c>
       <c r="D73" t="n">
         <v>0.125</v>
       </c>
@@ -2068,9 +1876,6 @@
           <t>Btp Tf 0,6% Ag31 Eur</t>
         </is>
       </c>
-      <c r="C74" t="n">
-        <v>87.58</v>
-      </c>
       <c r="D74" t="n">
         <v>0.3</v>
       </c>
@@ -2091,9 +1896,6 @@
           <t>Btpi Tf 0,15% Mg51 Eur</t>
         </is>
       </c>
-      <c r="C75" t="n">
-        <v>58.98</v>
-      </c>
       <c r="D75" t="n">
         <v>0.075</v>
       </c>
@@ -2114,9 +1916,6 @@
           <t>Btp Tf 0% Ap26 Eur</t>
         </is>
       </c>
-      <c r="C76" t="n">
-        <v>98.833</v>
-      </c>
       <c r="E76" t="inlineStr">
         <is>
           <t>01-04-26</t>
@@ -2134,9 +1933,6 @@
           <t>Btpgreen 1,5%Ap45eur</t>
         </is>
       </c>
-      <c r="C77" t="n">
-        <v>65.12</v>
-      </c>
       <c r="D77" t="n">
         <v>0.75</v>
       </c>
@@ -2157,9 +1953,6 @@
           <t>Btp Tf 2,15% Mz72 Eur</t>
         </is>
       </c>
-      <c r="C78" t="n">
-        <v>57.52</v>
-      </c>
       <c r="D78" t="n">
         <v>1.075</v>
       </c>
@@ -2180,9 +1973,6 @@
           <t>Btp Futura Ap37 Eur</t>
         </is>
       </c>
-      <c r="C79" t="n">
-        <v>78.84999999999999</v>
-      </c>
       <c r="D79" t="n">
         <v>0.6</v>
       </c>
@@ -2203,9 +1993,6 @@
           <t>Btp Tf 0,5% Lg28 Eur</t>
         </is>
       </c>
-      <c r="C80" t="n">
-        <v>95.09999999999999</v>
-      </c>
       <c r="D80" t="n">
         <v>0.25</v>
       </c>
@@ -2226,9 +2013,6 @@
           <t>Btp Tf 0,95% Dc31 Eur</t>
         </is>
       </c>
-      <c r="C81" t="n">
-        <v>88.64</v>
-      </c>
       <c r="D81" t="n">
         <v>0.475</v>
       </c>
@@ -2249,9 +2033,6 @@
           <t>Btp Tf 0% Ag26 Eur</t>
         </is>
       </c>
-      <c r="C82" t="n">
-        <v>98.28</v>
-      </c>
       <c r="E82" t="inlineStr">
         <is>
           <t>01-08-26</t>
@@ -2269,9 +2050,6 @@
           <t>Btp Tf 0,95% Gn32 Eur</t>
         </is>
       </c>
-      <c r="C83" t="n">
-        <v>87.38</v>
-      </c>
       <c r="D83" t="n">
         <v>0.475</v>
       </c>
@@ -2292,9 +2070,6 @@
           <t>Btp Futura Nv33 Eur</t>
         </is>
       </c>
-      <c r="C84" t="n">
-        <v>87.20999999999999</v>
-      </c>
       <c r="D84" t="n">
         <v>0.375</v>
       </c>
@@ -2315,9 +2090,6 @@
           <t>Btp Tf 0,45% Fb29 Eur</t>
         </is>
       </c>
-      <c r="C85" t="n">
-        <v>93.53</v>
-      </c>
       <c r="D85" t="n">
         <v>0.225</v>
       </c>
@@ -2338,9 +2110,6 @@
           <t>Btp Tf 2,15% St52 Eur</t>
         </is>
       </c>
-      <c r="C86" t="n">
-        <v>65.84999999999999</v>
-      </c>
       <c r="D86" t="n">
         <v>1.075</v>
       </c>
@@ -2361,9 +2130,6 @@
           <t>Btpi Tf 0,1% Mg33 Eur</t>
         </is>
       </c>
-      <c r="C87" t="n">
-        <v>89.94</v>
-      </c>
       <c r="D87" t="n">
         <v>0.05</v>
       </c>
@@ -2384,9 +2150,6 @@
           <t>Btp Tf 1,1% Ap27 Eur</t>
         </is>
       </c>
-      <c r="C88" t="n">
-        <v>98.47</v>
-      </c>
       <c r="D88" t="n">
         <v>0.55</v>
       </c>
@@ -2407,9 +2170,6 @@
           <t>Btp Tf 2,5% Dc32 Eur</t>
         </is>
       </c>
-      <c r="C89" t="n">
-        <v>95.98999999999999</v>
-      </c>
       <c r="D89" t="n">
         <v>1.25</v>
       </c>
@@ -2430,9 +2190,6 @@
           <t>Btp Tf 2,80% Gn29 Eur</t>
         </is>
       </c>
-      <c r="C90" t="n">
-        <v>101.07</v>
-      </c>
       <c r="D90" t="n">
         <v>1.4</v>
       </c>
@@ -2453,9 +2210,6 @@
           <t>Btp Tf 3,25% Mz38 Eur</t>
         </is>
       </c>
-      <c r="C91" t="n">
-        <v>94.97</v>
-      </c>
       <c r="D91" t="n">
         <v>1.625</v>
       </c>
@@ -2476,9 +2230,6 @@
           <t>Btp Italia Gn30 Eur</t>
         </is>
       </c>
-      <c r="C92" t="n">
-        <v>100.87</v>
-      </c>
       <c r="D92" t="n">
         <v>0.8</v>
       </c>
@@ -2635,9 +2386,6 @@
           <t>Btp Tf 2,65% Dc27 Eur</t>
         </is>
       </c>
-      <c r="C101" t="n">
-        <v>101.02</v>
-      </c>
       <c r="D101" t="n">
         <v>1.325</v>
       </c>
@@ -2658,9 +2406,6 @@
           <t>Btpgreen 4%Ap35eur</t>
         </is>
       </c>
-      <c r="C102" t="n">
-        <v>105.06</v>
-      </c>
       <c r="D102" t="n">
         <v>2</v>
       </c>
@@ -2681,9 +2426,6 @@
           <t>Btp Tf 3,5% Ge26 Eur</t>
         </is>
       </c>
-      <c r="C103" t="n">
-        <v>100.592</v>
-      </c>
       <c r="D103" t="n">
         <v>1.75</v>
       </c>
@@ -2704,9 +2446,6 @@
           <t>Btp Italia Nv28 Eur</t>
         </is>
       </c>
-      <c r="C104" t="n">
-        <v>101.43</v>
-      </c>
       <c r="D104" t="n">
         <v>0.8</v>
       </c>
@@ -2727,9 +2466,6 @@
           <t>Btp Tf 4,40% Mg33 Eur</t>
         </is>
       </c>
-      <c r="C105" t="n">
-        <v>108.13</v>
-      </c>
       <c r="D105" t="n">
         <v>2.2</v>
       </c>
@@ -2750,9 +2486,6 @@
           <t>Btp Tf 3,85% Dc29 Eur</t>
         </is>
       </c>
-      <c r="C106" t="n">
-        <v>105.12</v>
-      </c>
       <c r="D106" t="n">
         <v>1.925</v>
       </c>
@@ -2773,9 +2506,6 @@
           <t>Btp Tf 3,4% Ap28 Eur</t>
         </is>
       </c>
-      <c r="C107" t="n">
-        <v>102.9</v>
-      </c>
       <c r="D107" t="n">
         <v>1.7</v>
       </c>
@@ -2813,9 +2543,6 @@
           <t>Btp Tf 4,45% St43 Eur</t>
         </is>
       </c>
-      <c r="C109" t="n">
-        <v>104.29</v>
-      </c>
       <c r="D109" t="n">
         <v>2.225</v>
       </c>
@@ -2836,9 +2563,6 @@
           <t>Btp Italia Mz28 Eur</t>
         </is>
       </c>
-      <c r="C110" t="n">
-        <v>102.38</v>
-      </c>
       <c r="D110" t="n">
         <v>1</v>
       </c>
@@ -2859,9 +2583,6 @@
           <t>Btp Tf 4,5% Ot53 Eur</t>
         </is>
       </c>
-      <c r="C111" t="n">
-        <v>101.25</v>
-      </c>
       <c r="D111" t="n">
         <v>2.25</v>
       </c>
@@ -2882,9 +2603,6 @@
           <t>Btp Tf 3,80% Ap26 Eur</t>
         </is>
       </c>
-      <c r="C112" t="n">
-        <v>101.16</v>
-      </c>
       <c r="D112" t="n">
         <v>1.9</v>
       </c>
@@ -2905,9 +2623,6 @@
           <t>Btpgreen 4%Ot31eur</t>
         </is>
       </c>
-      <c r="C113" t="n">
-        <v>106.19</v>
-      </c>
       <c r="D113" t="n">
         <v>2</v>
       </c>
@@ -2928,9 +2643,6 @@
           <t>Btp Tf 3,7% Gn30 Eur</t>
         </is>
       </c>
-      <c r="C114" t="n">
-        <v>104.38</v>
-      </c>
       <c r="D114" t="n">
         <v>1.85</v>
       </c>
@@ -2971,9 +2683,6 @@
           <t>Btp Tf 4,35% Nv33 Eur</t>
         </is>
       </c>
-      <c r="C116" t="n">
-        <v>107.66</v>
-      </c>
       <c r="D116" t="n">
         <v>2.175</v>
       </c>
@@ -2994,9 +2703,6 @@
           <t>Btp Valore Gn27 Eur</t>
         </is>
       </c>
-      <c r="C117" t="n">
-        <v>102.92</v>
-      </c>
       <c r="D117" t="n">
         <v>2</v>
       </c>
@@ -3017,9 +2723,6 @@
           <t>Btpi Tf 2,4% Mg39 Eur</t>
         </is>
       </c>
-      <c r="C118" t="n">
-        <v>102.98</v>
-      </c>
       <c r="D118" t="n">
         <v>1.2</v>
       </c>
@@ -3040,9 +2743,6 @@
           <t>Btp Tf 3,8% Ag28 Eur</t>
         </is>
       </c>
-      <c r="C119" t="n">
-        <v>104.19</v>
-      </c>
       <c r="D119" t="n">
         <v>1.9</v>
       </c>
@@ -3080,9 +2780,6 @@
           <t>Btp Tf 3,85% St26 Eur</t>
         </is>
       </c>
-      <c r="C121" t="n">
-        <v>101.89</v>
-      </c>
       <c r="D121" t="n">
         <v>1.925</v>
       </c>
@@ -3103,9 +2800,6 @@
           <t>Btp Tf 3,6% St25 Eur</t>
         </is>
       </c>
-      <c r="C122" t="n">
-        <v>100.164</v>
-      </c>
       <c r="D122" t="n">
         <v>1.8</v>
       </c>
@@ -3126,9 +2820,6 @@
           <t>Btp Tf 4,2% Mz34 Eur</t>
         </is>
       </c>
-      <c r="C123" t="n">
-        <v>106.43</v>
-      </c>
       <c r="D123" t="n">
         <v>2.1</v>
       </c>
@@ -3149,9 +2840,6 @@
           <t>Btp Fx 4% Nov30 Eur</t>
         </is>
       </c>
-      <c r="C124" t="n">
-        <v>105.77</v>
-      </c>
       <c r="D124" t="n">
         <v>2</v>
       </c>
@@ -3172,9 +2860,6 @@
           <t>Btp Valore Sc Oct28 Eur</t>
         </is>
       </c>
-      <c r="C125" t="n">
-        <v>105.36</v>
-      </c>
       <c r="D125" t="n">
         <v>1.025</v>
       </c>
@@ -3195,9 +2880,6 @@
           <t>Btp Fx 4.1% Feb29 Eur</t>
         </is>
       </c>
-      <c r="C126" t="n">
-        <v>105.46</v>
-      </c>
       <c r="E126" t="inlineStr">
         <is>
           <t>01-02-29</t>
@@ -3215,9 +2897,6 @@
           <t>Btp Fx 2.95% Feb27 Eur</t>
         </is>
       </c>
-      <c r="C127" t="n">
-        <v>101.2</v>
-      </c>
       <c r="D127" t="n">
         <v>1.475</v>
       </c>
@@ -3238,9 +2917,6 @@
           <t>Btp Fx 3.5% Feb31 Eur</t>
         </is>
       </c>
-      <c r="C128" t="n">
-        <v>103.27</v>
-      </c>
       <c r="D128" t="n">
         <v>1.75</v>
       </c>
@@ -3261,9 +2937,6 @@
           <t>Btp Fx 4.15% Oct39 Eur</t>
         </is>
       </c>
-      <c r="C129" t="n">
-        <v>102.77</v>
-      </c>
       <c r="E129" t="inlineStr">
         <is>
           <t>01-10-39</t>
@@ -3281,9 +2954,6 @@
           <t>Btp Valore Sc Mz30 Eur</t>
         </is>
       </c>
-      <c r="C130" t="n">
-        <v>103.63</v>
-      </c>
       <c r="D130" t="n">
         <v>0.8125</v>
       </c>
@@ -3304,9 +2974,6 @@
           <t>Btp Fx 3.2% Jan26 Eur</t>
         </is>
       </c>
-      <c r="C131" t="n">
-        <v>100.519</v>
-      </c>
       <c r="D131" t="n">
         <v>1.6</v>
       </c>
@@ -3327,9 +2994,6 @@
           <t>Btp Fx 3.35% Jul29 Eur</t>
         </is>
       </c>
-      <c r="C132" t="n">
-        <v>102.94</v>
-      </c>
       <c r="D132" t="n">
         <v>1.675</v>
       </c>
@@ -3350,9 +3014,6 @@
           <t>Btp Fx 3.85% Jul34 Eur</t>
         </is>
       </c>
-      <c r="C133" t="n">
-        <v>103.58</v>
-      </c>
       <c r="D133" t="n">
         <v>1.925</v>
       </c>
@@ -3373,9 +3034,6 @@
           <t>Btpi Fx May36 Eur</t>
         </is>
       </c>
-      <c r="C134" t="n">
-        <v>99.12</v>
-      </c>
       <c r="D134" t="n">
         <v>0.9</v>
       </c>
@@ -3396,9 +3054,6 @@
           <t>Btp Valore Sc Mg30 Eur</t>
         </is>
       </c>
-      <c r="C135" t="n">
-        <v>103.49</v>
-      </c>
       <c r="D135" t="n">
         <v>0.8375</v>
       </c>
@@ -3419,9 +3074,6 @@
           <t>Btp Fx 3.45% Jul31 Eur</t>
         </is>
       </c>
-      <c r="C136" t="n">
-        <v>102.79</v>
-      </c>
       <c r="D136" t="n">
         <v>1.725</v>
       </c>
@@ -3442,9 +3094,6 @@
           <t>Btp Green Fx 4.05% Oct37 Eur</t>
         </is>
       </c>
-      <c r="C137" t="n">
-        <v>103.3</v>
-      </c>
       <c r="D137" t="n">
         <v>2.025</v>
       </c>
@@ -3465,9 +3114,6 @@
           <t>Btp Fx 3.45% Jul27 Eur</t>
         </is>
       </c>
-      <c r="C138" t="n">
-        <v>102.4</v>
-      </c>
       <c r="D138" t="n">
         <v>1.725</v>
       </c>
@@ -3488,9 +3134,6 @@
           <t>Btp Fx 3.1% Aug26 Eur</t>
         </is>
       </c>
-      <c r="C139" t="n">
-        <v>101.05</v>
-      </c>
       <c r="D139" t="n">
         <v>1.55</v>
       </c>
@@ -3511,9 +3154,6 @@
           <t>Btp Fx 3.85% Feb35 Eur</t>
         </is>
       </c>
-      <c r="C140" t="n">
-        <v>103.09</v>
-      </c>
       <c r="D140" t="n">
         <v>1.925</v>
       </c>
@@ -3534,9 +3174,6 @@
           <t>Btp Fx 3% Oct29 Eur</t>
         </is>
       </c>
-      <c r="C141" t="n">
-        <v>101.59</v>
-      </c>
       <c r="D141" t="n">
         <v>1.5</v>
       </c>
@@ -3557,9 +3194,6 @@
           <t>Btp Fx 4.3% Oct54 Eur</t>
         </is>
       </c>
-      <c r="C142" t="n">
-        <v>97.36</v>
-      </c>
       <c r="D142" t="n">
         <v>2.15</v>
       </c>
@@ -3580,9 +3214,6 @@
           <t>Btp Fx 3.15% Nov31 Eur</t>
         </is>
       </c>
-      <c r="C143" t="n">
-        <v>100.9</v>
-      </c>
       <c r="D143" t="n">
         <v>1.575</v>
       </c>
@@ -3603,9 +3234,6 @@
           <t>Btp Fx 2.7% Oct27 Eur</t>
         </is>
       </c>
-      <c r="C144" t="n">
-        <v>101.04</v>
-      </c>
       <c r="D144" t="n">
         <v>1.35</v>
       </c>
@@ -3626,9 +3254,6 @@
           <t>Btp Fx 3.65% Aug35 Eur</t>
         </is>
       </c>
-      <c r="C145" t="n">
-        <v>101.05</v>
-      </c>
       <c r="D145" t="n">
         <v>1.825</v>
       </c>
@@ -3649,9 +3274,6 @@
           <t>Btp Green Fx 4.1% Apr46 Eur</t>
         </is>
       </c>
-      <c r="C146" t="n">
-        <v>99.29000000000001</v>
-      </c>
       <c r="D146" t="n">
         <v>2.05</v>
       </c>
@@ -3672,9 +3294,6 @@
           <t>Btp Fx 2.55% Feb27 Eur</t>
         </is>
       </c>
-      <c r="C147" t="n">
-        <v>100.64</v>
-      </c>
       <c r="D147" t="n">
         <v>1.275</v>
       </c>
@@ -3695,9 +3314,6 @@
           <t>Btp Piu' Sc Fb33 Eur</t>
         </is>
       </c>
-      <c r="C148" t="n">
-        <v>100.6</v>
-      </c>
       <c r="D148" t="n">
         <v>0.7125</v>
       </c>
@@ -3718,9 +3334,6 @@
           <t>Btp Fx 3.85% Oct40 Eur</t>
         </is>
       </c>
-      <c r="C149" t="n">
-        <v>98.52</v>
-      </c>
       <c r="D149" t="n">
         <v>1.925</v>
       </c>
@@ -3741,9 +3354,6 @@
           <t>Btp Fx 2.95% Jul30 Eur</t>
         </is>
       </c>
-      <c r="C150" t="n">
-        <v>100.95</v>
-      </c>
       <c r="D150" t="n">
         <v>1.475</v>
       </c>
@@ -3764,9 +3374,6 @@
           <t>Btp Fx 2.65% Jun28 Eur</t>
         </is>
       </c>
-      <c r="C151" t="n">
-        <v>100.9</v>
-      </c>
       <c r="D151" t="n">
         <v>1.325</v>
       </c>
@@ -3787,9 +3394,6 @@
           <t>Btp Fx 3.25% Jul32 Eur</t>
         </is>
       </c>
-      <c r="C152" t="n">
-        <v>100.85</v>
-      </c>
       <c r="D152" t="n">
         <v>1.625</v>
       </c>
@@ -3810,9 +3414,6 @@
           <t>Btpi Fx May56 Eur</t>
         </is>
       </c>
-      <c r="C153" t="n">
-        <v>98.16</v>
-      </c>
       <c r="D153" t="n">
         <v>1.275</v>
       </c>
@@ -3833,9 +3434,6 @@
           <t>Btp Fx 3.6% Oct35 Eur</t>
         </is>
       </c>
-      <c r="C154" t="n">
-        <v>100.44</v>
-      </c>
       <c r="D154" t="n">
         <v>1.49508</v>
       </c>
@@ -3856,9 +3454,6 @@
           <t>Btp Italia Jun32 Eur</t>
         </is>
       </c>
-      <c r="C155" t="n">
-        <v>100.29</v>
-      </c>
       <c r="D155" t="n">
         <v>0.925</v>
       </c>
@@ -3879,9 +3474,6 @@
           <t>Btp Fx 2.7% Oct30 Eur</t>
         </is>
       </c>
-      <c r="C156" t="n">
-        <v>99.56</v>
-      </c>
       <c r="D156" t="n">
         <v>0.82623</v>
       </c>
@@ -3902,9 +3494,6 @@
           <t>Btp Fx 2.1% Aug27 Eur</t>
         </is>
       </c>
-      <c r="C157" t="n">
-        <v>99.84</v>
-      </c>
       <c r="D157" t="n">
         <v>0.34807</v>
       </c>
@@ -3925,9 +3514,6 @@
           <t>Btpi Fx Aug31 Eur</t>
         </is>
       </c>
-      <c r="C158" t="n">
-        <v>99.40000000000001</v>
-      </c>
       <c r="D158" t="n">
         <v>0.55</v>
       </c>
@@ -3947,9 +3533,6 @@
         <is>
           <t>Btp Fx 2.35% Jan29 Eur</t>
         </is>
-      </c>
-      <c r="C159" t="n">
-        <v>99.75</v>
       </c>
       <c r="D159" t="n">
         <v>1.175</v>

--- a/btp_dati.xlsx
+++ b/btp_dati.xlsx
@@ -478,6 +478,9 @@
           <t>Btp-1nv26      7,25%</t>
         </is>
       </c>
+      <c r="C2" t="n">
+        <v>106.19</v>
+      </c>
       <c r="D2" t="n">
         <v>3.625</v>
       </c>
@@ -498,6 +501,9 @@
           <t>Btp-1nv27       6,5%</t>
         </is>
       </c>
+      <c r="C3" t="n">
+        <v>109.25</v>
+      </c>
       <c r="D3" t="n">
         <v>3.25</v>
       </c>
@@ -518,6 +524,9 @@
           <t>Btp-1nv29      5,25%</t>
         </is>
       </c>
+      <c r="C4" t="n">
+        <v>111</v>
+      </c>
       <c r="D4" t="n">
         <v>2.625</v>
       </c>
@@ -538,6 +547,9 @@
           <t>Btp-1mg31         6%</t>
         </is>
       </c>
+      <c r="C5" t="n">
+        <v>116.87</v>
+      </c>
       <c r="D5" t="n">
         <v>3</v>
       </c>
@@ -558,6 +570,9 @@
           <t>Btp-1fb33      5,75%</t>
         </is>
       </c>
+      <c r="C6" t="n">
+        <v>117.2</v>
+      </c>
       <c r="D6" t="n">
         <v>2.875</v>
       </c>
@@ -578,6 +593,9 @@
           <t>Btp-1ag34         5%</t>
         </is>
       </c>
+      <c r="C7" t="n">
+        <v>112.81</v>
+      </c>
       <c r="D7" t="n">
         <v>2.5</v>
       </c>
@@ -598,6 +616,9 @@
           <t>Btpi-15st35    2,35%</t>
         </is>
       </c>
+      <c r="C8" t="n">
+        <v>107.17</v>
+      </c>
       <c r="D8" t="n">
         <v>1.175</v>
       </c>
@@ -618,6 +639,9 @@
           <t>Btp-1fb37         4%</t>
         </is>
       </c>
+      <c r="C9" t="n">
+        <v>103.72</v>
+      </c>
       <c r="D9" t="n">
         <v>2</v>
       </c>
@@ -638,6 +662,9 @@
           <t>Btp-1ag39         5%</t>
         </is>
       </c>
+      <c r="C10" t="n">
+        <v>112.55</v>
+      </c>
       <c r="D10" t="n">
         <v>2.5</v>
       </c>
@@ -658,6 +685,9 @@
           <t>Btp-1st40 5%</t>
         </is>
       </c>
+      <c r="C11" t="n">
+        <v>112.37</v>
+      </c>
       <c r="D11" t="n">
         <v>2.5</v>
       </c>
@@ -678,6 +708,9 @@
           <t>Btpi-15st41 2,55%</t>
         </is>
       </c>
+      <c r="C12" t="n">
+        <v>106.15</v>
+      </c>
       <c r="D12" t="n">
         <v>1.275</v>
       </c>
@@ -698,6 +731,9 @@
           <t>Btp-1mz26 4,5%</t>
         </is>
       </c>
+      <c r="C13" t="n">
+        <v>101.271</v>
+      </c>
       <c r="D13" t="n">
         <v>2.25</v>
       </c>
@@ -738,6 +774,9 @@
           <t>Btp Coupon Strip Zc Nv26 Eur</t>
         </is>
       </c>
+      <c r="C15" t="n">
+        <v>97.81</v>
+      </c>
       <c r="E15" t="inlineStr">
         <is>
           <t>01-11-26</t>
@@ -755,6 +794,9 @@
           <t>Btp Coupon Strip Zc Nv27 Eur</t>
         </is>
       </c>
+      <c r="C16" t="n">
+        <v>95.56</v>
+      </c>
       <c r="E16" t="inlineStr">
         <is>
           <t>01-11-27</t>
@@ -772,6 +814,9 @@
           <t>Btp Coupon Strip Zc Nv29 Eur</t>
         </is>
       </c>
+      <c r="C17" t="n">
+        <v>90.41</v>
+      </c>
       <c r="E17" t="inlineStr">
         <is>
           <t>01-11-29</t>
@@ -789,6 +834,9 @@
           <t>Btp Coupon Strip Zc Mg31 Eur</t>
         </is>
       </c>
+      <c r="C18" t="n">
+        <v>85.2</v>
+      </c>
       <c r="E18" t="inlineStr">
         <is>
           <t>01-05-31</t>
@@ -857,6 +905,9 @@
           <t>Btp Tf 4,75% St28 Eur</t>
         </is>
       </c>
+      <c r="C22" t="n">
+        <v>107.07</v>
+      </c>
       <c r="D22" t="n">
         <v>2.375</v>
       </c>
@@ -877,6 +928,9 @@
           <t>Btp Tf 4,75% St44 Eur</t>
         </is>
       </c>
+      <c r="C23" t="n">
+        <v>108.62</v>
+      </c>
       <c r="D23" t="n">
         <v>2.375</v>
       </c>
@@ -897,6 +951,9 @@
           <t>Btp Coupon Strip Zc St28 Eur</t>
         </is>
       </c>
+      <c r="C24" t="n">
+        <v>93.42</v>
+      </c>
       <c r="E24" t="inlineStr">
         <is>
           <t>01-09-28</t>
@@ -914,6 +971,9 @@
           <t>Btp Coupon Strip Zc Mz30 Eur</t>
         </is>
       </c>
+      <c r="C25" t="n">
+        <v>89.26000000000001</v>
+      </c>
       <c r="E25" t="inlineStr">
         <is>
           <t>01-03-30</t>
@@ -1016,6 +1076,9 @@
           <t>Btp Tf 3,50% Mz30 Eur</t>
         </is>
       </c>
+      <c r="C31" t="n">
+        <v>104.05</v>
+      </c>
       <c r="D31" t="n">
         <v>1.75</v>
       </c>
@@ -1036,6 +1099,9 @@
           <t>Btp Tf 3,25% St46 Eur</t>
         </is>
       </c>
+      <c r="C32" t="n">
+        <v>87.2</v>
+      </c>
       <c r="D32" t="n">
         <v>1.625</v>
       </c>
@@ -1056,6 +1122,9 @@
           <t>Btp Tf 1,65% Mz32 Eur</t>
         </is>
       </c>
+      <c r="C33" t="n">
+        <v>92.29000000000001</v>
+      </c>
       <c r="D33" t="n">
         <v>0.825</v>
       </c>
@@ -1076,6 +1145,9 @@
           <t>Btp Tf 2,00% Dc25 Eur</t>
         </is>
       </c>
+      <c r="C34" t="n">
+        <v>100.01</v>
+      </c>
       <c r="D34" t="n">
         <v>1</v>
       </c>
@@ -1096,6 +1168,9 @@
           <t>Btpi Tf 1,25% St32 Eur</t>
         </is>
       </c>
+      <c r="C35" t="n">
+        <v>100.03</v>
+      </c>
       <c r="D35" t="n">
         <v>0.625</v>
       </c>
@@ -1116,6 +1191,9 @@
           <t>Btp Tf 2,7% Mz47 Eur</t>
         </is>
       </c>
+      <c r="C36" t="n">
+        <v>79.23999999999999</v>
+      </c>
       <c r="D36" t="n">
         <v>1.35</v>
       </c>
@@ -1136,6 +1214,9 @@
           <t>Btp Tf 1,60% Gn26 Eur</t>
         </is>
       </c>
+      <c r="C37" t="n">
+        <v>99.736</v>
+      </c>
       <c r="D37" t="n">
         <v>0.8</v>
       </c>
@@ -1156,6 +1237,9 @@
           <t>Btp Tf 2,25% St36 Eur</t>
         </is>
       </c>
+      <c r="C38" t="n">
+        <v>88.06</v>
+      </c>
       <c r="D38" t="n">
         <v>1.125</v>
       </c>
@@ -1176,6 +1260,9 @@
           <t>Btp Tf 1.25% Dc26 Eur</t>
         </is>
       </c>
+      <c r="C39" t="n">
+        <v>99.14</v>
+      </c>
       <c r="D39" t="n">
         <v>0.625</v>
       </c>
@@ -1196,6 +1283,9 @@
           <t>Btp Tf 2,8% Mz67 Eur</t>
         </is>
       </c>
+      <c r="C40" t="n">
+        <v>69.83</v>
+      </c>
       <c r="D40" t="n">
         <v>1.4</v>
       </c>
@@ -1216,6 +1306,9 @@
           <t>Btp Tf 2,45% St33 Eur</t>
         </is>
       </c>
+      <c r="C41" t="n">
+        <v>94.81999999999999</v>
+      </c>
       <c r="D41" t="n">
         <v>1.225</v>
       </c>
@@ -1236,6 +1329,9 @@
           <t>Btp Tf 2,20% Gn27 Eur</t>
         </is>
       </c>
+      <c r="C42" t="n">
+        <v>100.27</v>
+      </c>
       <c r="D42" t="n">
         <v>1.1</v>
       </c>
@@ -1256,6 +1352,9 @@
           <t>Btpi Tf 1,30% Mg28 Eur</t>
         </is>
       </c>
+      <c r="C43" t="n">
+        <v>101.19</v>
+      </c>
       <c r="D43" t="n">
         <v>0.65</v>
       </c>
@@ -1276,6 +1375,9 @@
           <t>Btp Tf 3,45% Mz48 Eur</t>
         </is>
       </c>
+      <c r="C44" t="n">
+        <v>89.09999999999999</v>
+      </c>
       <c r="D44" t="n">
         <v>1.725</v>
       </c>
@@ -1296,6 +1398,9 @@
           <t>Btp Tf 2,05% Ag27 Eur</t>
         </is>
       </c>
+      <c r="C45" t="n">
+        <v>99.95</v>
+      </c>
       <c r="D45" t="n">
         <v>1.025</v>
       </c>
@@ -1316,6 +1421,9 @@
           <t>Btp Tf 2,95% St38 Eur</t>
         </is>
       </c>
+      <c r="C46" t="n">
+        <v>91.7</v>
+      </c>
       <c r="D46" t="n">
         <v>1.475</v>
       </c>
@@ -1336,6 +1444,9 @@
           <t>Btp Tf 2,00% Fb28 Eur</t>
         </is>
       </c>
+      <c r="C47" t="n">
+        <v>99.56</v>
+      </c>
       <c r="D47" t="n">
         <v>1</v>
       </c>
@@ -1356,6 +1467,9 @@
           <t>Btp Italia Mg26 Eur</t>
         </is>
       </c>
+      <c r="C48" t="n">
+        <v>99.836</v>
+      </c>
       <c r="D48" t="n">
         <v>0.275</v>
       </c>
@@ -1376,6 +1490,9 @@
           <t>Btp Tf 2,80% Dc28 Eur</t>
         </is>
       </c>
+      <c r="C49" t="n">
+        <v>101.55</v>
+      </c>
       <c r="D49" t="n">
         <v>1.4</v>
       </c>
@@ -1396,6 +1513,9 @@
           <t>Btp Tf 2.50% Nv25 Eur</t>
         </is>
       </c>
+      <c r="C50" t="n">
+        <v>100.099</v>
+      </c>
       <c r="D50" t="n">
         <v>1.25</v>
       </c>
@@ -1416,6 +1536,9 @@
           <t>Btp Tf 3,35% Mz35 Eur</t>
         </is>
       </c>
+      <c r="C51" t="n">
+        <v>99.7</v>
+      </c>
       <c r="D51" t="n">
         <v>1.675</v>
       </c>
@@ -1436,6 +1559,9 @@
           <t>Btp Tf 3,85% St49 Eur</t>
         </is>
       </c>
+      <c r="C52" t="n">
+        <v>94.25</v>
+      </c>
       <c r="D52" t="n">
         <v>1.925</v>
       </c>
@@ -1456,6 +1582,9 @@
           <t>Btp Tf 3,00% Ag29 Eur</t>
         </is>
       </c>
+      <c r="C53" t="n">
+        <v>102.06</v>
+      </c>
       <c r="D53" t="n">
         <v>1.5</v>
       </c>
@@ -1476,6 +1605,9 @@
           <t>Btp Tf 2,10% Lg26 Eur</t>
         </is>
       </c>
+      <c r="C54" t="n">
+        <v>100.1</v>
+      </c>
       <c r="D54" t="n">
         <v>1.05</v>
       </c>
@@ -1496,6 +1628,9 @@
           <t>Btp Tf 3,1% Mz40 Eur</t>
         </is>
       </c>
+      <c r="C55" t="n">
+        <v>91.33</v>
+      </c>
       <c r="D55" t="n">
         <v>1.55</v>
       </c>
@@ -1516,6 +1651,9 @@
           <t>Btp Tf 1,35% Ap30 Eur</t>
         </is>
       </c>
+      <c r="C56" t="n">
+        <v>94.66</v>
+      </c>
       <c r="D56" t="n">
         <v>0.675</v>
       </c>
@@ -1536,6 +1674,9 @@
           <t>Btpi Tf 0,4% Mg30 Eur</t>
         </is>
       </c>
+      <c r="C57" t="n">
+        <v>97.23</v>
+      </c>
       <c r="D57" t="n">
         <v>0.2</v>
       </c>
@@ -1556,6 +1697,9 @@
           <t>Btp Italia Ot27 Eur</t>
         </is>
       </c>
+      <c r="C58" t="n">
+        <v>99.81</v>
+      </c>
       <c r="D58" t="n">
         <v>0.325</v>
       </c>
@@ -1576,6 +1720,9 @@
           <t>Btp Tf 0,85% Ge27 Eur</t>
         </is>
       </c>
+      <c r="C59" t="n">
+        <v>98.45</v>
+      </c>
       <c r="D59" t="n">
         <v>0.425</v>
       </c>
@@ -1596,6 +1743,9 @@
           <t>Btp Tf 2,45% St50 Eur</t>
         </is>
       </c>
+      <c r="C60" t="n">
+        <v>72.22</v>
+      </c>
       <c r="D60" t="n">
         <v>1.225</v>
       </c>
@@ -1616,6 +1766,9 @@
           <t>Btp Tf 1,45% Mz36 Eur</t>
         </is>
       </c>
+      <c r="C61" t="n">
+        <v>81.69</v>
+      </c>
       <c r="D61" t="n">
         <v>0.725</v>
       </c>
@@ -1636,6 +1789,9 @@
           <t>Btp Tf 0,95% Ag30 Eur</t>
         </is>
       </c>
+      <c r="C62" t="n">
+        <v>92.09</v>
+      </c>
       <c r="D62" t="n">
         <v>0.475</v>
       </c>
@@ -1656,6 +1812,9 @@
           <t>Btp Tf 1,65% Dc30 Eur</t>
         </is>
       </c>
+      <c r="C63" t="n">
+        <v>94.66</v>
+      </c>
       <c r="D63" t="n">
         <v>0.825</v>
       </c>
@@ -1676,6 +1835,9 @@
           <t>Btp Futura Lg30 Eur</t>
         </is>
       </c>
+      <c r="C64" t="n">
+        <v>93.94</v>
+      </c>
       <c r="D64" t="n">
         <v>0.65</v>
       </c>
@@ -1696,6 +1858,9 @@
           <t>Btpi Tf 0,65% Mg26 Eur</t>
         </is>
       </c>
+      <c r="C65" t="n">
+        <v>99.59399999999999</v>
+      </c>
       <c r="D65" t="n">
         <v>0.325</v>
       </c>
@@ -1716,6 +1881,9 @@
           <t>Btp Tf 0,95% St27 Eur</t>
         </is>
       </c>
+      <c r="C66" t="n">
+        <v>97.72</v>
+      </c>
       <c r="D66" t="n">
         <v>0.475</v>
       </c>
@@ -1736,6 +1904,9 @@
           <t>Btp Tf 0,50% Fb26 Eur</t>
         </is>
       </c>
+      <c r="C67" t="n">
+        <v>99.364</v>
+      </c>
       <c r="D67" t="n">
         <v>0.25</v>
       </c>
@@ -1756,6 +1927,9 @@
           <t>Btp Tf 1,8% Mz41 Eur</t>
         </is>
       </c>
+      <c r="C68" t="n">
+        <v>74.98</v>
+      </c>
       <c r="D68" t="n">
         <v>0.9</v>
       </c>
@@ -1776,6 +1950,9 @@
           <t>Btp Tf 0,90% Ap31 Eur</t>
         </is>
       </c>
+      <c r="C69" t="n">
+        <v>90.17</v>
+      </c>
       <c r="D69" t="n">
         <v>0.45</v>
       </c>
@@ -1796,6 +1973,9 @@
           <t>Btp Tf 1,7% St51 Eur</t>
         </is>
       </c>
+      <c r="C70" t="n">
+        <v>60.43</v>
+      </c>
       <c r="D70" t="n">
         <v>0.85</v>
       </c>
@@ -1816,6 +1996,9 @@
           <t>Btp Futura Nv28 Eur</t>
         </is>
       </c>
+      <c r="C71" t="n">
+        <v>95.23</v>
+      </c>
       <c r="D71" t="n">
         <v>0.3</v>
       </c>
@@ -1836,6 +2019,9 @@
           <t>Btp Tf 0,95% Mz37 Eur</t>
         </is>
       </c>
+      <c r="C72" t="n">
+        <v>74.78</v>
+      </c>
       <c r="D72" t="n">
         <v>0.475</v>
       </c>
@@ -1856,6 +2042,9 @@
           <t>Btp Tf 0,25% Mz28 Eur</t>
         </is>
       </c>
+      <c r="C73" t="n">
+        <v>95.20999999999999</v>
+      </c>
       <c r="D73" t="n">
         <v>0.125</v>
       </c>
@@ -1876,6 +2065,9 @@
           <t>Btp Tf 0,6% Ag31 Eur</t>
         </is>
       </c>
+      <c r="C74" t="n">
+        <v>87.73999999999999</v>
+      </c>
       <c r="D74" t="n">
         <v>0.3</v>
       </c>
@@ -1896,6 +2088,9 @@
           <t>Btpi Tf 0,15% Mg51 Eur</t>
         </is>
       </c>
+      <c r="C75" t="n">
+        <v>58.73</v>
+      </c>
       <c r="D75" t="n">
         <v>0.075</v>
       </c>
@@ -1916,6 +2111,9 @@
           <t>Btp Tf 0% Ap26 Eur</t>
         </is>
       </c>
+      <c r="C76" t="n">
+        <v>98.84099999999999</v>
+      </c>
       <c r="E76" t="inlineStr">
         <is>
           <t>01-04-26</t>
@@ -1933,6 +2131,9 @@
           <t>Btpgreen 1,5%Ap45eur</t>
         </is>
       </c>
+      <c r="C77" t="n">
+        <v>65.26000000000001</v>
+      </c>
       <c r="D77" t="n">
         <v>0.75</v>
       </c>
@@ -1953,6 +2154,9 @@
           <t>Btp Tf 2,15% Mz72 Eur</t>
         </is>
       </c>
+      <c r="C78" t="n">
+        <v>57.49</v>
+      </c>
       <c r="D78" t="n">
         <v>1.075</v>
       </c>
@@ -1973,6 +2177,9 @@
           <t>Btp Futura Ap37 Eur</t>
         </is>
       </c>
+      <c r="C79" t="n">
+        <v>79.09999999999999</v>
+      </c>
       <c r="D79" t="n">
         <v>0.6</v>
       </c>
@@ -1993,6 +2200,9 @@
           <t>Btp Tf 0,5% Lg28 Eur</t>
         </is>
       </c>
+      <c r="C80" t="n">
+        <v>95.13</v>
+      </c>
       <c r="D80" t="n">
         <v>0.25</v>
       </c>
@@ -2013,6 +2223,9 @@
           <t>Btp Tf 0,95% Dc31 Eur</t>
         </is>
       </c>
+      <c r="C81" t="n">
+        <v>88.78</v>
+      </c>
       <c r="D81" t="n">
         <v>0.475</v>
       </c>
@@ -2033,6 +2246,9 @@
           <t>Btp Tf 0% Ag26 Eur</t>
         </is>
       </c>
+      <c r="C82" t="n">
+        <v>98.29900000000001</v>
+      </c>
       <c r="E82" t="inlineStr">
         <is>
           <t>01-08-26</t>
@@ -2050,6 +2266,9 @@
           <t>Btp Tf 0,95% Gn32 Eur</t>
         </is>
       </c>
+      <c r="C83" t="n">
+        <v>87.54000000000001</v>
+      </c>
       <c r="D83" t="n">
         <v>0.475</v>
       </c>
@@ -2070,6 +2289,9 @@
           <t>Btp Futura Nv33 Eur</t>
         </is>
       </c>
+      <c r="C84" t="n">
+        <v>87.3</v>
+      </c>
       <c r="D84" t="n">
         <v>0.375</v>
       </c>
@@ -2090,6 +2312,9 @@
           <t>Btp Tf 0,45% Fb29 Eur</t>
         </is>
       </c>
+      <c r="C85" t="n">
+        <v>93.62</v>
+      </c>
       <c r="D85" t="n">
         <v>0.225</v>
       </c>
@@ -2110,6 +2335,9 @@
           <t>Btp Tf 2,15% St52 Eur</t>
         </is>
       </c>
+      <c r="C86" t="n">
+        <v>66.05</v>
+      </c>
       <c r="D86" t="n">
         <v>1.075</v>
       </c>
@@ -2130,6 +2358,9 @@
           <t>Btpi Tf 0,1% Mg33 Eur</t>
         </is>
       </c>
+      <c r="C87" t="n">
+        <v>90.02</v>
+      </c>
       <c r="D87" t="n">
         <v>0.05</v>
       </c>
@@ -2150,6 +2381,9 @@
           <t>Btp Tf 1,1% Ap27 Eur</t>
         </is>
       </c>
+      <c r="C88" t="n">
+        <v>98.53</v>
+      </c>
       <c r="D88" t="n">
         <v>0.55</v>
       </c>
@@ -2170,6 +2404,9 @@
           <t>Btp Tf 2,5% Dc32 Eur</t>
         </is>
       </c>
+      <c r="C89" t="n">
+        <v>96.19</v>
+      </c>
       <c r="D89" t="n">
         <v>1.25</v>
       </c>
@@ -2190,6 +2427,9 @@
           <t>Btp Tf 2,80% Gn29 Eur</t>
         </is>
       </c>
+      <c r="C90" t="n">
+        <v>101.19</v>
+      </c>
       <c r="D90" t="n">
         <v>1.4</v>
       </c>
@@ -2210,6 +2450,9 @@
           <t>Btp Tf 3,25% Mz38 Eur</t>
         </is>
       </c>
+      <c r="C91" t="n">
+        <v>95.06999999999999</v>
+      </c>
       <c r="D91" t="n">
         <v>1.625</v>
       </c>
@@ -2230,6 +2473,9 @@
           <t>Btp Italia Gn30 Eur</t>
         </is>
       </c>
+      <c r="C92" t="n">
+        <v>100.86</v>
+      </c>
       <c r="D92" t="n">
         <v>0.8</v>
       </c>
@@ -2386,6 +2632,9 @@
           <t>Btp Tf 2,65% Dc27 Eur</t>
         </is>
       </c>
+      <c r="C101" t="n">
+        <v>101.05</v>
+      </c>
       <c r="D101" t="n">
         <v>1.325</v>
       </c>
@@ -2406,6 +2655,9 @@
           <t>Btpgreen 4%Ap35eur</t>
         </is>
       </c>
+      <c r="C102" t="n">
+        <v>105.27</v>
+      </c>
       <c r="D102" t="n">
         <v>2</v>
       </c>
@@ -2426,6 +2678,9 @@
           <t>Btp Tf 3,5% Ge26 Eur</t>
         </is>
       </c>
+      <c r="C103" t="n">
+        <v>100.549</v>
+      </c>
       <c r="D103" t="n">
         <v>1.75</v>
       </c>
@@ -2446,6 +2701,9 @@
           <t>Btp Italia Nv28 Eur</t>
         </is>
       </c>
+      <c r="C104" t="n">
+        <v>101.51</v>
+      </c>
       <c r="D104" t="n">
         <v>0.8</v>
       </c>
@@ -2466,6 +2724,9 @@
           <t>Btp Tf 4,40% Mg33 Eur</t>
         </is>
       </c>
+      <c r="C105" t="n">
+        <v>108.37</v>
+      </c>
       <c r="D105" t="n">
         <v>2.2</v>
       </c>
@@ -2486,6 +2747,9 @@
           <t>Btp Tf 3,85% Dc29 Eur</t>
         </is>
       </c>
+      <c r="C106" t="n">
+        <v>105.11</v>
+      </c>
       <c r="D106" t="n">
         <v>1.925</v>
       </c>
@@ -2506,6 +2770,9 @@
           <t>Btp Tf 3,4% Ap28 Eur</t>
         </is>
       </c>
+      <c r="C107" t="n">
+        <v>102.89</v>
+      </c>
       <c r="D107" t="n">
         <v>1.7</v>
       </c>
@@ -2543,6 +2810,9 @@
           <t>Btp Tf 4,45% St43 Eur</t>
         </is>
       </c>
+      <c r="C109" t="n">
+        <v>104.33</v>
+      </c>
       <c r="D109" t="n">
         <v>2.225</v>
       </c>
@@ -2563,6 +2833,9 @@
           <t>Btp Italia Mz28 Eur</t>
         </is>
       </c>
+      <c r="C110" t="n">
+        <v>102.43</v>
+      </c>
       <c r="D110" t="n">
         <v>1</v>
       </c>
@@ -2583,6 +2856,9 @@
           <t>Btp Tf 4,5% Ot53 Eur</t>
         </is>
       </c>
+      <c r="C111" t="n">
+        <v>101.48</v>
+      </c>
       <c r="D111" t="n">
         <v>2.25</v>
       </c>
@@ -2603,6 +2879,9 @@
           <t>Btp Tf 3,80% Ap26 Eur</t>
         </is>
       </c>
+      <c r="C112" t="n">
+        <v>101.126</v>
+      </c>
       <c r="D112" t="n">
         <v>1.9</v>
       </c>
@@ -2623,6 +2902,9 @@
           <t>Btpgreen 4%Ot31eur</t>
         </is>
       </c>
+      <c r="C113" t="n">
+        <v>106.27</v>
+      </c>
       <c r="D113" t="n">
         <v>2</v>
       </c>
@@ -2643,6 +2925,9 @@
           <t>Btp Tf 3,7% Gn30 Eur</t>
         </is>
       </c>
+      <c r="C114" t="n">
+        <v>104.53</v>
+      </c>
       <c r="D114" t="n">
         <v>1.85</v>
       </c>
@@ -2663,6 +2948,9 @@
           <t>Btpi Tf 1.5% Mg29 Eur</t>
         </is>
       </c>
+      <c r="C115" t="n">
+        <v>101.9</v>
+      </c>
       <c r="D115" t="n">
         <v>0.75</v>
       </c>
@@ -2683,6 +2971,9 @@
           <t>Btp Tf 4,35% Nv33 Eur</t>
         </is>
       </c>
+      <c r="C116" t="n">
+        <v>107.84</v>
+      </c>
       <c r="D116" t="n">
         <v>2.175</v>
       </c>
@@ -2703,6 +2994,9 @@
           <t>Btp Valore Gn27 Eur</t>
         </is>
       </c>
+      <c r="C117" t="n">
+        <v>102.95</v>
+      </c>
       <c r="D117" t="n">
         <v>2</v>
       </c>
@@ -2723,6 +3017,9 @@
           <t>Btpi Tf 2,4% Mg39 Eur</t>
         </is>
       </c>
+      <c r="C118" t="n">
+        <v>103.1</v>
+      </c>
       <c r="D118" t="n">
         <v>1.2</v>
       </c>
@@ -2743,6 +3040,9 @@
           <t>Btp Tf 3,8% Ag28 Eur</t>
         </is>
       </c>
+      <c r="C119" t="n">
+        <v>104.19</v>
+      </c>
       <c r="D119" t="n">
         <v>1.9</v>
       </c>
@@ -2780,6 +3080,9 @@
           <t>Btp Tf 3,85% St26 Eur</t>
         </is>
       </c>
+      <c r="C121" t="n">
+        <v>101.86</v>
+      </c>
       <c r="D121" t="n">
         <v>1.925</v>
       </c>
@@ -2800,6 +3103,9 @@
           <t>Btp Tf 3,6% St25 Eur</t>
         </is>
       </c>
+      <c r="C122" t="n">
+        <v>100.144</v>
+      </c>
       <c r="D122" t="n">
         <v>1.8</v>
       </c>
@@ -2820,6 +3126,9 @@
           <t>Btp Tf 4,2% Mz34 Eur</t>
         </is>
       </c>
+      <c r="C123" t="n">
+        <v>106.64</v>
+      </c>
       <c r="D123" t="n">
         <v>2.1</v>
       </c>
@@ -2840,6 +3149,9 @@
           <t>Btp Fx 4% Nov30 Eur</t>
         </is>
       </c>
+      <c r="C124" t="n">
+        <v>105.92</v>
+      </c>
       <c r="D124" t="n">
         <v>2</v>
       </c>
@@ -2860,6 +3172,9 @@
           <t>Btp Valore Sc Oct28 Eur</t>
         </is>
       </c>
+      <c r="C125" t="n">
+        <v>105.45</v>
+      </c>
       <c r="D125" t="n">
         <v>1.025</v>
       </c>
@@ -2880,6 +3195,9 @@
           <t>Btp Fx 4.1% Feb29 Eur</t>
         </is>
       </c>
+      <c r="C126" t="n">
+        <v>105.47</v>
+      </c>
       <c r="E126" t="inlineStr">
         <is>
           <t>01-02-29</t>
@@ -2897,6 +3215,9 @@
           <t>Btp Fx 2.95% Feb27 Eur</t>
         </is>
       </c>
+      <c r="C127" t="n">
+        <v>101.17</v>
+      </c>
       <c r="D127" t="n">
         <v>1.475</v>
       </c>
@@ -2917,6 +3238,9 @@
           <t>Btp Fx 3.5% Feb31 Eur</t>
         </is>
       </c>
+      <c r="C128" t="n">
+        <v>103.34</v>
+      </c>
       <c r="D128" t="n">
         <v>1.75</v>
       </c>
@@ -2937,6 +3261,9 @@
           <t>Btp Fx 4.15% Oct39 Eur</t>
         </is>
       </c>
+      <c r="C129" t="n">
+        <v>102.95</v>
+      </c>
       <c r="E129" t="inlineStr">
         <is>
           <t>01-10-39</t>
@@ -2954,6 +3281,9 @@
           <t>Btp Valore Sc Mz30 Eur</t>
         </is>
       </c>
+      <c r="C130" t="n">
+        <v>103.78</v>
+      </c>
       <c r="D130" t="n">
         <v>0.8125</v>
       </c>
@@ -2974,6 +3304,9 @@
           <t>Btp Fx 3.2% Jan26 Eur</t>
         </is>
       </c>
+      <c r="C131" t="n">
+        <v>100.491</v>
+      </c>
       <c r="D131" t="n">
         <v>1.6</v>
       </c>
@@ -2994,6 +3327,9 @@
           <t>Btp Fx 3.35% Jul29 Eur</t>
         </is>
       </c>
+      <c r="C132" t="n">
+        <v>103.01</v>
+      </c>
       <c r="D132" t="n">
         <v>1.675</v>
       </c>
@@ -3014,6 +3350,9 @@
           <t>Btp Fx 3.85% Jul34 Eur</t>
         </is>
       </c>
+      <c r="C133" t="n">
+        <v>103.81</v>
+      </c>
       <c r="D133" t="n">
         <v>1.925</v>
       </c>
@@ -3034,6 +3373,9 @@
           <t>Btpi Fx May36 Eur</t>
         </is>
       </c>
+      <c r="C134" t="n">
+        <v>98.98</v>
+      </c>
       <c r="D134" t="n">
         <v>0.9</v>
       </c>
@@ -3054,6 +3396,9 @@
           <t>Btp Valore Sc Mg30 Eur</t>
         </is>
       </c>
+      <c r="C135" t="n">
+        <v>103.7</v>
+      </c>
       <c r="D135" t="n">
         <v>0.8375</v>
       </c>
@@ -3074,6 +3419,9 @@
           <t>Btp Fx 3.45% Jul31 Eur</t>
         </is>
       </c>
+      <c r="C136" t="n">
+        <v>102.91</v>
+      </c>
       <c r="D136" t="n">
         <v>1.725</v>
       </c>
@@ -3094,6 +3442,9 @@
           <t>Btp Green Fx 4.05% Oct37 Eur</t>
         </is>
       </c>
+      <c r="C137" t="n">
+        <v>103.44</v>
+      </c>
       <c r="D137" t="n">
         <v>2.025</v>
       </c>
@@ -3114,6 +3465,9 @@
           <t>Btp Fx 3.45% Jul27 Eur</t>
         </is>
       </c>
+      <c r="C138" t="n">
+        <v>102.31</v>
+      </c>
       <c r="D138" t="n">
         <v>1.725</v>
       </c>
@@ -3134,6 +3488,9 @@
           <t>Btp Fx 3.1% Aug26 Eur</t>
         </is>
       </c>
+      <c r="C139" t="n">
+        <v>101.06</v>
+      </c>
       <c r="D139" t="n">
         <v>1.55</v>
       </c>
@@ -3154,6 +3511,9 @@
           <t>Btp Fx 3.85% Feb35 Eur</t>
         </is>
       </c>
+      <c r="C140" t="n">
+        <v>103.36</v>
+      </c>
       <c r="D140" t="n">
         <v>1.925</v>
       </c>
@@ -3174,6 +3534,9 @@
           <t>Btp Fx 3% Oct29 Eur</t>
         </is>
       </c>
+      <c r="C141" t="n">
+        <v>101.68</v>
+      </c>
       <c r="D141" t="n">
         <v>1.5</v>
       </c>
@@ -3194,6 +3557,9 @@
           <t>Btp Fx 4.3% Oct54 Eur</t>
         </is>
       </c>
+      <c r="C142" t="n">
+        <v>97.62</v>
+      </c>
       <c r="D142" t="n">
         <v>2.15</v>
       </c>
@@ -3214,6 +3580,9 @@
           <t>Btp Fx 3.15% Nov31 Eur</t>
         </is>
       </c>
+      <c r="C143" t="n">
+        <v>101.04</v>
+      </c>
       <c r="D143" t="n">
         <v>1.575</v>
       </c>
@@ -3234,6 +3603,9 @@
           <t>Btp Fx 2.7% Oct27 Eur</t>
         </is>
       </c>
+      <c r="C144" t="n">
+        <v>100.11</v>
+      </c>
       <c r="D144" t="n">
         <v>1.35</v>
       </c>
@@ -3254,6 +3626,9 @@
           <t>Btp Fx 3.65% Aug35 Eur</t>
         </is>
       </c>
+      <c r="C145" t="n">
+        <v>101.29</v>
+      </c>
       <c r="D145" t="n">
         <v>1.825</v>
       </c>
@@ -3274,6 +3649,9 @@
           <t>Btp Green Fx 4.1% Apr46 Eur</t>
         </is>
       </c>
+      <c r="C146" t="n">
+        <v>99.39</v>
+      </c>
       <c r="D146" t="n">
         <v>2.05</v>
       </c>
@@ -3294,6 +3672,9 @@
           <t>Btp Fx 2.55% Feb27 Eur</t>
         </is>
       </c>
+      <c r="C147" t="n">
+        <v>100.59</v>
+      </c>
       <c r="D147" t="n">
         <v>1.275</v>
       </c>
@@ -3314,6 +3695,9 @@
           <t>Btp Piu' Sc Fb33 Eur</t>
         </is>
       </c>
+      <c r="C148" t="n">
+        <v>100.77</v>
+      </c>
       <c r="D148" t="n">
         <v>0.7125</v>
       </c>
@@ -3334,6 +3718,9 @@
           <t>Btp Fx 3.85% Oct40 Eur</t>
         </is>
       </c>
+      <c r="C149" t="n">
+        <v>98.66</v>
+      </c>
       <c r="D149" t="n">
         <v>1.925</v>
       </c>
@@ -3354,6 +3741,9 @@
           <t>Btp Fx 2.95% Jul30 Eur</t>
         </is>
       </c>
+      <c r="C150" t="n">
+        <v>100.91</v>
+      </c>
       <c r="D150" t="n">
         <v>1.475</v>
       </c>
@@ -3374,6 +3764,9 @@
           <t>Btp Fx 2.65% Jun28 Eur</t>
         </is>
       </c>
+      <c r="C151" t="n">
+        <v>100.83</v>
+      </c>
       <c r="D151" t="n">
         <v>1.325</v>
       </c>
@@ -3394,6 +3787,9 @@
           <t>Btp Fx 3.25% Jul32 Eur</t>
         </is>
       </c>
+      <c r="C152" t="n">
+        <v>100.94</v>
+      </c>
       <c r="D152" t="n">
         <v>1.625</v>
       </c>
@@ -3414,6 +3810,9 @@
           <t>Btpi Fx May56 Eur</t>
         </is>
       </c>
+      <c r="C153" t="n">
+        <v>98.38</v>
+      </c>
       <c r="D153" t="n">
         <v>1.275</v>
       </c>
@@ -3434,6 +3833,9 @@
           <t>Btp Fx 3.6% Oct35 Eur</t>
         </is>
       </c>
+      <c r="C154" t="n">
+        <v>100.64</v>
+      </c>
       <c r="D154" t="n">
         <v>1.49508</v>
       </c>
@@ -3454,6 +3856,9 @@
           <t>Btp Italia Jun32 Eur</t>
         </is>
       </c>
+      <c r="C155" t="n">
+        <v>100.47</v>
+      </c>
       <c r="D155" t="n">
         <v>0.925</v>
       </c>
@@ -3474,6 +3879,9 @@
           <t>Btp Fx 2.7% Oct30 Eur</t>
         </is>
       </c>
+      <c r="C156" t="n">
+        <v>99.69</v>
+      </c>
       <c r="D156" t="n">
         <v>0.82623</v>
       </c>
@@ -3494,6 +3902,9 @@
           <t>Btp Fx 2.1% Aug27 Eur</t>
         </is>
       </c>
+      <c r="C157" t="n">
+        <v>99.94</v>
+      </c>
       <c r="D157" t="n">
         <v>0.34807</v>
       </c>
@@ -3514,6 +3925,9 @@
           <t>Btpi Fx Aug31 Eur</t>
         </is>
       </c>
+      <c r="C158" t="n">
+        <v>99.38</v>
+      </c>
       <c r="D158" t="n">
         <v>0.55</v>
       </c>
@@ -3533,6 +3947,9 @@
         <is>
           <t>Btp Fx 2.35% Jan29 Eur</t>
         </is>
+      </c>
+      <c r="C159" t="n">
+        <v>99.75</v>
       </c>
       <c r="D159" t="n">
         <v>1.175</v>

--- a/btp_dati.xlsx
+++ b/btp_dati.xlsx
@@ -479,7 +479,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>106.19</v>
+        <v>106.1</v>
       </c>
       <c r="D2" t="n">
         <v>3.625</v>
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>109.25</v>
+        <v>109.11</v>
       </c>
       <c r="D3" t="n">
         <v>3.25</v>
@@ -525,7 +525,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>111</v>
+        <v>110.61</v>
       </c>
       <c r="D4" t="n">
         <v>2.625</v>
@@ -548,7 +548,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>116.87</v>
+        <v>116.49</v>
       </c>
       <c r="D5" t="n">
         <v>3</v>
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>117.2</v>
+        <v>116.8</v>
       </c>
       <c r="D6" t="n">
         <v>2.875</v>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>112.81</v>
+        <v>112.38</v>
       </c>
       <c r="D7" t="n">
         <v>2.5</v>
@@ -617,7 +617,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>107.17</v>
+        <v>106.79</v>
       </c>
       <c r="D8" t="n">
         <v>1.175</v>
@@ -640,7 +640,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>103.72</v>
+        <v>103.19</v>
       </c>
       <c r="D9" t="n">
         <v>2</v>
@@ -663,7 +663,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>112.55</v>
+        <v>111.95</v>
       </c>
       <c r="D10" t="n">
         <v>2.5</v>
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>112.37</v>
+        <v>111.73</v>
       </c>
       <c r="D11" t="n">
         <v>2.5</v>
@@ -709,7 +709,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>106.15</v>
+        <v>105.4</v>
       </c>
       <c r="D12" t="n">
         <v>1.275</v>
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>101.271</v>
+        <v>101.253</v>
       </c>
       <c r="D13" t="n">
         <v>2.25</v>
@@ -754,6 +754,9 @@
           <t>Btpi-15st26 3,1%</t>
         </is>
       </c>
+      <c r="C14" t="n">
+        <v>102.86</v>
+      </c>
       <c r="D14" t="n">
         <v>1.55</v>
       </c>
@@ -795,7 +798,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>95.56</v>
+        <v>95.47</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -815,7 +818,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>90.41</v>
+        <v>90.22</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -835,7 +838,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>85.2</v>
+        <v>85.25</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -906,7 +909,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>107.07</v>
+        <v>106.87</v>
       </c>
       <c r="D22" t="n">
         <v>2.375</v>
@@ -929,7 +932,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>108.62</v>
+        <v>107.85</v>
       </c>
       <c r="D23" t="n">
         <v>2.375</v>
@@ -952,7 +955,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>93.42</v>
+        <v>93.37</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -972,7 +975,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>89.26000000000001</v>
+        <v>89.06999999999999</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1077,7 +1080,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>104.05</v>
+        <v>103.78</v>
       </c>
       <c r="D31" t="n">
         <v>1.75</v>
@@ -1100,7 +1103,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>87.2</v>
+        <v>86.51000000000001</v>
       </c>
       <c r="D32" t="n">
         <v>1.625</v>
@@ -1123,7 +1126,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>92.29000000000001</v>
+        <v>91.97</v>
       </c>
       <c r="D33" t="n">
         <v>0.825</v>
@@ -1146,7 +1149,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>100.01</v>
+        <v>100</v>
       </c>
       <c r="D34" t="n">
         <v>1</v>
@@ -1169,7 +1172,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>100.03</v>
+        <v>99.70999999999999</v>
       </c>
       <c r="D35" t="n">
         <v>0.625</v>
@@ -1192,7 +1195,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>79.23999999999999</v>
+        <v>78.51000000000001</v>
       </c>
       <c r="D36" t="n">
         <v>1.35</v>
@@ -1215,7 +1218,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>99.736</v>
+        <v>99.729</v>
       </c>
       <c r="D37" t="n">
         <v>0.8</v>
@@ -1238,7 +1241,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>88.06</v>
+        <v>87.58</v>
       </c>
       <c r="D38" t="n">
         <v>1.125</v>
@@ -1261,7 +1264,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>99.14</v>
+        <v>99.06</v>
       </c>
       <c r="D39" t="n">
         <v>0.625</v>
@@ -1284,7 +1287,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>69.83</v>
+        <v>69.11</v>
       </c>
       <c r="D40" t="n">
         <v>1.4</v>
@@ -1307,7 +1310,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>94.81999999999999</v>
+        <v>94.31999999999999</v>
       </c>
       <c r="D41" t="n">
         <v>1.225</v>
@@ -1330,7 +1333,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>100.27</v>
+        <v>100.2</v>
       </c>
       <c r="D42" t="n">
         <v>1.1</v>
@@ -1353,7 +1356,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>101.19</v>
+        <v>101.25</v>
       </c>
       <c r="D43" t="n">
         <v>0.65</v>
@@ -1376,7 +1379,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>89.09999999999999</v>
+        <v>88.43000000000001</v>
       </c>
       <c r="D44" t="n">
         <v>1.725</v>
@@ -1399,7 +1402,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>99.95</v>
+        <v>99.87</v>
       </c>
       <c r="D45" t="n">
         <v>1.025</v>
@@ -1422,7 +1425,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>91.7</v>
+        <v>91.18000000000001</v>
       </c>
       <c r="D46" t="n">
         <v>1.475</v>
@@ -1445,7 +1448,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>99.56</v>
+        <v>99.54000000000001</v>
       </c>
       <c r="D47" t="n">
         <v>1</v>
@@ -1468,7 +1471,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>99.836</v>
+        <v>99.84999999999999</v>
       </c>
       <c r="D48" t="n">
         <v>0.275</v>
@@ -1491,7 +1494,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>101.55</v>
+        <v>101.43</v>
       </c>
       <c r="D49" t="n">
         <v>1.4</v>
@@ -1514,7 +1517,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>100.099</v>
+        <v>100.078</v>
       </c>
       <c r="D50" t="n">
         <v>1.25</v>
@@ -1537,7 +1540,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>99.7</v>
+        <v>99.19</v>
       </c>
       <c r="D51" t="n">
         <v>1.675</v>
@@ -1560,7 +1563,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>94.25</v>
+        <v>93.5</v>
       </c>
       <c r="D52" t="n">
         <v>1.925</v>
@@ -1583,7 +1586,7 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>102.06</v>
+        <v>101.85</v>
       </c>
       <c r="D53" t="n">
         <v>1.5</v>
@@ -1606,7 +1609,7 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>100.1</v>
+        <v>100.071</v>
       </c>
       <c r="D54" t="n">
         <v>1.05</v>
@@ -1629,7 +1632,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>91.33</v>
+        <v>90.73</v>
       </c>
       <c r="D55" t="n">
         <v>1.55</v>
@@ -1652,7 +1655,7 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>94.66</v>
+        <v>94.45999999999999</v>
       </c>
       <c r="D56" t="n">
         <v>0.675</v>
@@ -1675,7 +1678,7 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>97.23</v>
+        <v>97.12</v>
       </c>
       <c r="D57" t="n">
         <v>0.2</v>
@@ -1698,7 +1701,7 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>99.81</v>
+        <v>99.79000000000001</v>
       </c>
       <c r="D58" t="n">
         <v>0.325</v>
@@ -1721,7 +1724,7 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>98.45</v>
+        <v>98.5</v>
       </c>
       <c r="D59" t="n">
         <v>0.425</v>
@@ -1744,7 +1747,7 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>72.22</v>
+        <v>71.67</v>
       </c>
       <c r="D60" t="n">
         <v>1.225</v>
@@ -1767,7 +1770,7 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>81.69</v>
+        <v>81.27</v>
       </c>
       <c r="D61" t="n">
         <v>0.725</v>
@@ -1790,7 +1793,7 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>92.09</v>
+        <v>91.86</v>
       </c>
       <c r="D62" t="n">
         <v>0.475</v>
@@ -1813,7 +1816,7 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>94.66</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="D63" t="n">
         <v>0.825</v>
@@ -1836,7 +1839,7 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>93.94</v>
+        <v>93.7</v>
       </c>
       <c r="D64" t="n">
         <v>0.65</v>
@@ -1859,7 +1862,7 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>99.59399999999999</v>
+        <v>99.521</v>
       </c>
       <c r="D65" t="n">
         <v>0.325</v>
@@ -1882,7 +1885,7 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>97.72</v>
+        <v>97.65000000000001</v>
       </c>
       <c r="D66" t="n">
         <v>0.475</v>
@@ -1905,7 +1908,7 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>99.364</v>
+        <v>99.348</v>
       </c>
       <c r="D67" t="n">
         <v>0.25</v>
@@ -1928,7 +1931,7 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>74.98</v>
+        <v>74.48999999999999</v>
       </c>
       <c r="D68" t="n">
         <v>0.9</v>
@@ -1951,7 +1954,7 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>90.17</v>
+        <v>89.90000000000001</v>
       </c>
       <c r="D69" t="n">
         <v>0.45</v>
@@ -1974,7 +1977,7 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>60.43</v>
+        <v>59.88</v>
       </c>
       <c r="D70" t="n">
         <v>0.85</v>
@@ -1997,7 +2000,7 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>95.23</v>
+        <v>95.26000000000001</v>
       </c>
       <c r="D71" t="n">
         <v>0.3</v>
@@ -2020,7 +2023,7 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>74.78</v>
+        <v>74.34</v>
       </c>
       <c r="D72" t="n">
         <v>0.475</v>
@@ -2043,7 +2046,7 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>95.20999999999999</v>
+        <v>95.08</v>
       </c>
       <c r="D73" t="n">
         <v>0.125</v>
@@ -2066,7 +2069,7 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>87.73999999999999</v>
+        <v>87.47</v>
       </c>
       <c r="D74" t="n">
         <v>0.3</v>
@@ -2089,7 +2092,7 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>58.73</v>
+        <v>58.13</v>
       </c>
       <c r="D75" t="n">
         <v>0.075</v>
@@ -2112,7 +2115,7 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>98.84099999999999</v>
+        <v>98.821</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -2132,7 +2135,7 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>65.26000000000001</v>
+        <v>64.72</v>
       </c>
       <c r="D77" t="n">
         <v>0.75</v>
@@ -2155,7 +2158,7 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>57.49</v>
+        <v>56.85</v>
       </c>
       <c r="D78" t="n">
         <v>1.075</v>
@@ -2178,7 +2181,7 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>79.09999999999999</v>
+        <v>78.77</v>
       </c>
       <c r="D79" t="n">
         <v>0.6</v>
@@ -2201,7 +2204,7 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>95.13</v>
+        <v>94.98999999999999</v>
       </c>
       <c r="D80" t="n">
         <v>0.25</v>
@@ -2224,7 +2227,7 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>88.78</v>
+        <v>88.48999999999999</v>
       </c>
       <c r="D81" t="n">
         <v>0.475</v>
@@ -2247,7 +2250,7 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>98.29900000000001</v>
+        <v>98.268</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -2267,7 +2270,7 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>87.54000000000001</v>
+        <v>87.19</v>
       </c>
       <c r="D83" t="n">
         <v>0.475</v>
@@ -2290,7 +2293,7 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>87.3</v>
+        <v>86.91</v>
       </c>
       <c r="D84" t="n">
         <v>0.375</v>
@@ -2313,7 +2316,7 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>93.62</v>
+        <v>93.5</v>
       </c>
       <c r="D85" t="n">
         <v>0.225</v>
@@ -2336,7 +2339,7 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>66.05</v>
+        <v>65.47</v>
       </c>
       <c r="D86" t="n">
         <v>1.075</v>
@@ -2359,7 +2362,7 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>90.02</v>
+        <v>89.70999999999999</v>
       </c>
       <c r="D87" t="n">
         <v>0.05</v>
@@ -2382,7 +2385,7 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>98.53</v>
+        <v>98.45</v>
       </c>
       <c r="D88" t="n">
         <v>0.55</v>
@@ -2405,7 +2408,7 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>96.19</v>
+        <v>95.81</v>
       </c>
       <c r="D89" t="n">
         <v>1.25</v>
@@ -2428,7 +2431,7 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>101.19</v>
+        <v>101.01</v>
       </c>
       <c r="D90" t="n">
         <v>1.4</v>
@@ -2451,7 +2454,7 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>95.06999999999999</v>
+        <v>94.5</v>
       </c>
       <c r="D91" t="n">
         <v>1.625</v>
@@ -2474,7 +2477,7 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>100.86</v>
+        <v>100.8</v>
       </c>
       <c r="D92" t="n">
         <v>0.8</v>
@@ -2633,7 +2636,7 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>101.05</v>
+        <v>100.91</v>
       </c>
       <c r="D101" t="n">
         <v>1.325</v>
@@ -2656,7 +2659,7 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>105.27</v>
+        <v>104.77</v>
       </c>
       <c r="D102" t="n">
         <v>2</v>
@@ -2679,7 +2682,7 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>100.549</v>
+        <v>100.544</v>
       </c>
       <c r="D103" t="n">
         <v>1.75</v>
@@ -2702,7 +2705,7 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>101.51</v>
+        <v>101.42</v>
       </c>
       <c r="D104" t="n">
         <v>0.8</v>
@@ -2725,7 +2728,7 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>108.37</v>
+        <v>107.99</v>
       </c>
       <c r="D105" t="n">
         <v>2.2</v>
@@ -2748,7 +2751,7 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>105.11</v>
+        <v>104.88</v>
       </c>
       <c r="D106" t="n">
         <v>1.925</v>
@@ -2771,7 +2774,7 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>102.89</v>
+        <v>102.78</v>
       </c>
       <c r="D107" t="n">
         <v>1.7</v>
@@ -2811,7 +2814,7 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>104.33</v>
+        <v>103.69</v>
       </c>
       <c r="D109" t="n">
         <v>2.225</v>
@@ -2834,7 +2837,7 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>102.43</v>
+        <v>102.34</v>
       </c>
       <c r="D110" t="n">
         <v>1</v>
@@ -2857,7 +2860,7 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>101.48</v>
+        <v>100.63</v>
       </c>
       <c r="D111" t="n">
         <v>2.25</v>
@@ -2880,7 +2883,7 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>101.126</v>
+        <v>101.11</v>
       </c>
       <c r="D112" t="n">
         <v>1.9</v>
@@ -2903,7 +2906,7 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>106.27</v>
+        <v>106.02</v>
       </c>
       <c r="D113" t="n">
         <v>2</v>
@@ -2926,7 +2929,7 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>104.53</v>
+        <v>104.28</v>
       </c>
       <c r="D114" t="n">
         <v>1.85</v>
@@ -2948,9 +2951,6 @@
           <t>Btpi Tf 1.5% Mg29 Eur</t>
         </is>
       </c>
-      <c r="C115" t="n">
-        <v>101.9</v>
-      </c>
       <c r="D115" t="n">
         <v>0.75</v>
       </c>
@@ -2972,7 +2972,7 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>107.84</v>
+        <v>107.39</v>
       </c>
       <c r="D116" t="n">
         <v>2.175</v>
@@ -2995,7 +2995,7 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>102.95</v>
+        <v>102.81</v>
       </c>
       <c r="D117" t="n">
         <v>2</v>
@@ -3018,7 +3018,7 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>103.1</v>
+        <v>102.68</v>
       </c>
       <c r="D118" t="n">
         <v>1.2</v>
@@ -3041,7 +3041,7 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>104.19</v>
+        <v>104.04</v>
       </c>
       <c r="D119" t="n">
         <v>1.9</v>
@@ -3081,7 +3081,7 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>101.86</v>
+        <v>101.79</v>
       </c>
       <c r="D121" t="n">
         <v>1.925</v>
@@ -3104,7 +3104,7 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>100.144</v>
+        <v>100.15</v>
       </c>
       <c r="D122" t="n">
         <v>1.8</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>106.64</v>
+        <v>106.17</v>
       </c>
       <c r="D123" t="n">
         <v>2.1</v>
@@ -3150,7 +3150,7 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>105.92</v>
+        <v>105.61</v>
       </c>
       <c r="D124" t="n">
         <v>2</v>
@@ -3173,7 +3173,7 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>105.45</v>
+        <v>105.17</v>
       </c>
       <c r="D125" t="n">
         <v>1.025</v>
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>105.47</v>
+        <v>105.28</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -3216,7 +3216,7 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>101.17</v>
+        <v>101.14</v>
       </c>
       <c r="D127" t="n">
         <v>1.475</v>
@@ -3239,7 +3239,7 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>103.34</v>
+        <v>103.06</v>
       </c>
       <c r="D128" t="n">
         <v>1.75</v>
@@ -3262,7 +3262,7 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>102.95</v>
+        <v>102.28</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -3282,7 +3282,7 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>103.78</v>
+        <v>103.55</v>
       </c>
       <c r="D130" t="n">
         <v>0.8125</v>
@@ -3305,7 +3305,7 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>100.491</v>
+        <v>100.467</v>
       </c>
       <c r="D131" t="n">
         <v>1.6</v>
@@ -3328,7 +3328,7 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>103.01</v>
+        <v>102.81</v>
       </c>
       <c r="D132" t="n">
         <v>1.675</v>
@@ -3351,7 +3351,7 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>103.81</v>
+        <v>103.38</v>
       </c>
       <c r="D133" t="n">
         <v>1.925</v>
@@ -3374,7 +3374,7 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>98.98</v>
+        <v>98.7</v>
       </c>
       <c r="D134" t="n">
         <v>0.9</v>
@@ -3397,7 +3397,7 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>103.7</v>
+        <v>103.36</v>
       </c>
       <c r="D135" t="n">
         <v>0.8375</v>
@@ -3420,7 +3420,7 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>102.91</v>
+        <v>102.64</v>
       </c>
       <c r="D136" t="n">
         <v>1.725</v>
@@ -3443,7 +3443,7 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>103.44</v>
+        <v>102.86</v>
       </c>
       <c r="D137" t="n">
         <v>2.025</v>
@@ -3466,7 +3466,7 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>102.31</v>
+        <v>102.28</v>
       </c>
       <c r="D138" t="n">
         <v>1.725</v>
@@ -3489,7 +3489,7 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>101.06</v>
+        <v>101</v>
       </c>
       <c r="D139" t="n">
         <v>1.55</v>
@@ -3512,7 +3512,7 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>103.36</v>
+        <v>102.9</v>
       </c>
       <c r="D140" t="n">
         <v>1.925</v>
@@ -3535,7 +3535,7 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>101.68</v>
+        <v>101.48</v>
       </c>
       <c r="D141" t="n">
         <v>1.5</v>
@@ -3558,7 +3558,7 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>97.62</v>
+        <v>96.84999999999999</v>
       </c>
       <c r="D142" t="n">
         <v>2.15</v>
@@ -3581,7 +3581,7 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>101.04</v>
+        <v>100.71</v>
       </c>
       <c r="D143" t="n">
         <v>1.575</v>
@@ -3604,7 +3604,7 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>100.11</v>
+        <v>100.97</v>
       </c>
       <c r="D144" t="n">
         <v>1.35</v>
@@ -3627,7 +3627,7 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>101.29</v>
+        <v>100.78</v>
       </c>
       <c r="D145" t="n">
         <v>1.825</v>
@@ -3650,7 +3650,7 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>99.39</v>
+        <v>98.7</v>
       </c>
       <c r="D146" t="n">
         <v>2.05</v>
@@ -3673,7 +3673,7 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>100.59</v>
+        <v>100.58</v>
       </c>
       <c r="D147" t="n">
         <v>1.275</v>
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>100.77</v>
+        <v>100.44</v>
       </c>
       <c r="D148" t="n">
         <v>0.7125</v>
@@ -3719,7 +3719,7 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>98.66</v>
+        <v>98.08</v>
       </c>
       <c r="D149" t="n">
         <v>1.925</v>
@@ -3742,7 +3742,7 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>100.91</v>
+        <v>100.82</v>
       </c>
       <c r="D150" t="n">
         <v>1.475</v>
@@ -3765,7 +3765,7 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>100.83</v>
+        <v>100.81</v>
       </c>
       <c r="D151" t="n">
         <v>1.325</v>
@@ -3788,7 +3788,7 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>100.94</v>
+        <v>100.69</v>
       </c>
       <c r="D152" t="n">
         <v>1.625</v>
@@ -3811,7 +3811,7 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>98.38</v>
+        <v>97.3</v>
       </c>
       <c r="D153" t="n">
         <v>1.275</v>
@@ -3834,7 +3834,7 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>100.64</v>
+        <v>100.18</v>
       </c>
       <c r="D154" t="n">
         <v>1.49508</v>
@@ -3857,7 +3857,7 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>100.47</v>
+        <v>100.29</v>
       </c>
       <c r="D155" t="n">
         <v>0.925</v>
@@ -3880,7 +3880,7 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>99.69</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="D156" t="n">
         <v>0.82623</v>
@@ -3903,7 +3903,7 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>99.94</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D157" t="n">
         <v>0.34807</v>
@@ -3926,7 +3926,7 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>99.38</v>
+        <v>99.36</v>
       </c>
       <c r="D158" t="n">
         <v>0.55</v>
@@ -3949,7 +3949,7 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>99.75</v>
+        <v>99.56</v>
       </c>
       <c r="D159" t="n">
         <v>1.175</v>

--- a/btp_dati.xlsx
+++ b/btp_dati.xlsx
@@ -479,7 +479,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>106.1</v>
+        <v>106.08</v>
       </c>
       <c r="D2" t="n">
         <v>3.625</v>
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>109.11</v>
+        <v>109.26</v>
       </c>
       <c r="D3" t="n">
         <v>3.25</v>
@@ -525,7 +525,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>110.61</v>
+        <v>110.87</v>
       </c>
       <c r="D4" t="n">
         <v>2.625</v>
@@ -548,7 +548,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>116.49</v>
+        <v>116.72</v>
       </c>
       <c r="D5" t="n">
         <v>3</v>
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>116.8</v>
+        <v>116.92</v>
       </c>
       <c r="D6" t="n">
         <v>2.875</v>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>112.38</v>
+        <v>112.51</v>
       </c>
       <c r="D7" t="n">
         <v>2.5</v>
@@ -617,7 +617,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>106.79</v>
+        <v>107</v>
       </c>
       <c r="D8" t="n">
         <v>1.175</v>
@@ -640,7 +640,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>103.19</v>
+        <v>103.16</v>
       </c>
       <c r="D9" t="n">
         <v>2</v>
@@ -663,7 +663,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>111.95</v>
+        <v>111.86</v>
       </c>
       <c r="D10" t="n">
         <v>2.5</v>
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>111.73</v>
+        <v>111.63</v>
       </c>
       <c r="D11" t="n">
         <v>2.5</v>
@@ -709,7 +709,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>105.4</v>
+        <v>104.99</v>
       </c>
       <c r="D12" t="n">
         <v>1.275</v>
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>101.253</v>
+        <v>101.233</v>
       </c>
       <c r="D13" t="n">
         <v>2.25</v>
@@ -778,7 +778,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>97.81</v>
+        <v>97.78</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -798,7 +798,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>95.47</v>
+        <v>95.56999999999999</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -818,7 +818,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>90.22</v>
+        <v>90.17</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>85.25</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>106.87</v>
+        <v>107.05</v>
       </c>
       <c r="D22" t="n">
         <v>2.375</v>
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>107.85</v>
+        <v>107.7</v>
       </c>
       <c r="D23" t="n">
         <v>2.375</v>
@@ -954,9 +954,6 @@
           <t>Btp Coupon Strip Zc St28 Eur</t>
         </is>
       </c>
-      <c r="C24" t="n">
-        <v>93.37</v>
-      </c>
       <c r="E24" t="inlineStr">
         <is>
           <t>01-09-28</t>
@@ -975,7 +972,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>89.06999999999999</v>
+        <v>89.23999999999999</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1080,7 +1077,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>103.78</v>
+        <v>103.98</v>
       </c>
       <c r="D31" t="n">
         <v>1.75</v>
@@ -1103,7 +1100,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>86.51000000000001</v>
+        <v>86.27</v>
       </c>
       <c r="D32" t="n">
         <v>1.625</v>
@@ -1126,7 +1123,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>91.97</v>
+        <v>92.19</v>
       </c>
       <c r="D33" t="n">
         <v>0.825</v>
@@ -1149,7 +1146,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>100</v>
+        <v>99.999</v>
       </c>
       <c r="D34" t="n">
         <v>1</v>
@@ -1172,7 +1169,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>99.70999999999999</v>
+        <v>99.8</v>
       </c>
       <c r="D35" t="n">
         <v>0.625</v>
@@ -1195,7 +1192,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>78.51000000000001</v>
+        <v>78.31999999999999</v>
       </c>
       <c r="D36" t="n">
         <v>1.35</v>
@@ -1218,7 +1215,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>99.729</v>
+        <v>99.72</v>
       </c>
       <c r="D37" t="n">
         <v>0.8</v>
@@ -1241,7 +1238,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>87.58</v>
+        <v>87.62</v>
       </c>
       <c r="D38" t="n">
         <v>1.125</v>
@@ -1264,7 +1261,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>99.06</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="D39" t="n">
         <v>0.625</v>
@@ -1287,7 +1284,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>69.11</v>
+        <v>68.87</v>
       </c>
       <c r="D40" t="n">
         <v>1.4</v>
@@ -1310,7 +1307,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>94.31999999999999</v>
+        <v>94.56</v>
       </c>
       <c r="D41" t="n">
         <v>1.225</v>
@@ -1333,7 +1330,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>100.2</v>
+        <v>100.25</v>
       </c>
       <c r="D42" t="n">
         <v>1.1</v>
@@ -1356,7 +1353,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>101.25</v>
+        <v>101.37</v>
       </c>
       <c r="D43" t="n">
         <v>0.65</v>
@@ -1379,7 +1376,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>88.43000000000001</v>
+        <v>88.17</v>
       </c>
       <c r="D44" t="n">
         <v>1.725</v>
@@ -1402,7 +1399,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>99.87</v>
+        <v>99.94</v>
       </c>
       <c r="D45" t="n">
         <v>1.025</v>
@@ -1425,7 +1422,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>91.18000000000001</v>
+        <v>91.17</v>
       </c>
       <c r="D46" t="n">
         <v>1.475</v>
@@ -1448,7 +1445,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>99.54000000000001</v>
+        <v>99.64</v>
       </c>
       <c r="D47" t="n">
         <v>1</v>
@@ -1471,7 +1468,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>99.84999999999999</v>
+        <v>99.849</v>
       </c>
       <c r="D48" t="n">
         <v>0.275</v>
@@ -1494,7 +1491,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>101.43</v>
+        <v>101.57</v>
       </c>
       <c r="D49" t="n">
         <v>1.4</v>
@@ -1517,7 +1514,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>100.078</v>
+        <v>100.097</v>
       </c>
       <c r="D50" t="n">
         <v>1.25</v>
@@ -1540,7 +1537,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>99.19</v>
+        <v>99.34</v>
       </c>
       <c r="D51" t="n">
         <v>1.675</v>
@@ -1563,7 +1560,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>93.5</v>
+        <v>93.29000000000001</v>
       </c>
       <c r="D52" t="n">
         <v>1.925</v>
@@ -1586,7 +1583,7 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>101.85</v>
+        <v>101.96</v>
       </c>
       <c r="D53" t="n">
         <v>1.5</v>
@@ -1609,7 +1606,7 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>100.071</v>
+        <v>100.095</v>
       </c>
       <c r="D54" t="n">
         <v>1.05</v>
@@ -1632,7 +1629,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>90.73</v>
+        <v>90.81999999999999</v>
       </c>
       <c r="D55" t="n">
         <v>1.55</v>
@@ -1655,7 +1652,7 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>94.45999999999999</v>
+        <v>94.59</v>
       </c>
       <c r="D56" t="n">
         <v>0.675</v>
@@ -1678,7 +1675,7 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>97.12</v>
+        <v>97.15000000000001</v>
       </c>
       <c r="D57" t="n">
         <v>0.2</v>
@@ -1701,7 +1698,7 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>99.79000000000001</v>
+        <v>99.83</v>
       </c>
       <c r="D58" t="n">
         <v>0.325</v>
@@ -1724,7 +1721,7 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>98.5</v>
+        <v>98.47</v>
       </c>
       <c r="D59" t="n">
         <v>0.425</v>
@@ -1747,7 +1744,7 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>71.67</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="D60" t="n">
         <v>1.225</v>
@@ -1770,7 +1767,7 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>81.27</v>
+        <v>81.41</v>
       </c>
       <c r="D61" t="n">
         <v>0.725</v>
@@ -1793,7 +1790,7 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>91.86</v>
+        <v>92.02</v>
       </c>
       <c r="D62" t="n">
         <v>0.475</v>
@@ -1816,7 +1813,7 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>94.40000000000001</v>
+        <v>94.55</v>
       </c>
       <c r="D63" t="n">
         <v>0.825</v>
@@ -1839,7 +1836,7 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>93.7</v>
+        <v>93.93000000000001</v>
       </c>
       <c r="D64" t="n">
         <v>0.65</v>
@@ -1862,7 +1859,7 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>99.521</v>
+        <v>99.599</v>
       </c>
       <c r="D65" t="n">
         <v>0.325</v>
@@ -1885,7 +1882,7 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>97.65000000000001</v>
+        <v>98.01000000000001</v>
       </c>
       <c r="D66" t="n">
         <v>0.475</v>
@@ -1908,7 +1905,7 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>99.348</v>
+        <v>99.36199999999999</v>
       </c>
       <c r="D67" t="n">
         <v>0.25</v>
@@ -1931,7 +1928,7 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>74.48999999999999</v>
+        <v>74.34</v>
       </c>
       <c r="D68" t="n">
         <v>0.9</v>
@@ -1954,7 +1951,7 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>89.90000000000001</v>
+        <v>90.06</v>
       </c>
       <c r="D69" t="n">
         <v>0.45</v>
@@ -1977,7 +1974,7 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>59.88</v>
+        <v>59.63</v>
       </c>
       <c r="D70" t="n">
         <v>0.85</v>
@@ -2000,7 +1997,7 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>95.26000000000001</v>
+        <v>95.36</v>
       </c>
       <c r="D71" t="n">
         <v>0.3</v>
@@ -2023,7 +2020,7 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>74.34</v>
+        <v>74.41</v>
       </c>
       <c r="D72" t="n">
         <v>0.475</v>
@@ -2046,7 +2043,7 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>95.08</v>
+        <v>95.23</v>
       </c>
       <c r="D73" t="n">
         <v>0.125</v>
@@ -2069,7 +2066,7 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>87.47</v>
+        <v>87.63</v>
       </c>
       <c r="D74" t="n">
         <v>0.3</v>
@@ -2092,7 +2089,7 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>58.13</v>
+        <v>58.11</v>
       </c>
       <c r="D75" t="n">
         <v>0.075</v>
@@ -2115,7 +2112,7 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>98.821</v>
+        <v>98.84999999999999</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -2135,7 +2132,7 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>64.72</v>
+        <v>64.54000000000001</v>
       </c>
       <c r="D77" t="n">
         <v>0.75</v>
@@ -2158,7 +2155,7 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>56.85</v>
+        <v>56.79</v>
       </c>
       <c r="D78" t="n">
         <v>1.075</v>
@@ -2181,7 +2178,7 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>78.77</v>
+        <v>78.43000000000001</v>
       </c>
       <c r="D79" t="n">
         <v>0.6</v>
@@ -2204,7 +2201,7 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>94.98999999999999</v>
+        <v>95.13</v>
       </c>
       <c r="D80" t="n">
         <v>0.25</v>
@@ -2227,7 +2224,7 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>88.48999999999999</v>
+        <v>88.59</v>
       </c>
       <c r="D81" t="n">
         <v>0.475</v>
@@ -2250,7 +2247,7 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>98.268</v>
+        <v>98.3</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -2270,7 +2267,7 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>87.19</v>
+        <v>87.3</v>
       </c>
       <c r="D83" t="n">
         <v>0.475</v>
@@ -2293,7 +2290,7 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>86.91</v>
+        <v>87.06999999999999</v>
       </c>
       <c r="D84" t="n">
         <v>0.375</v>
@@ -2316,7 +2313,7 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>93.5</v>
+        <v>93.58</v>
       </c>
       <c r="D85" t="n">
         <v>0.225</v>
@@ -2339,7 +2336,7 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>65.47</v>
+        <v>65.29000000000001</v>
       </c>
       <c r="D86" t="n">
         <v>1.075</v>
@@ -2362,7 +2359,7 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>89.70999999999999</v>
+        <v>89.89</v>
       </c>
       <c r="D87" t="n">
         <v>0.05</v>
@@ -2385,7 +2382,7 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>98.45</v>
+        <v>98.51000000000001</v>
       </c>
       <c r="D88" t="n">
         <v>0.55</v>
@@ -2408,7 +2405,7 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>95.81</v>
+        <v>95.98</v>
       </c>
       <c r="D89" t="n">
         <v>1.25</v>
@@ -2431,7 +2428,7 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>101.01</v>
+        <v>101.13</v>
       </c>
       <c r="D90" t="n">
         <v>1.4</v>
@@ -2454,7 +2451,7 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>94.5</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D91" t="n">
         <v>1.625</v>
@@ -2477,7 +2474,7 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>100.8</v>
+        <v>100.89</v>
       </c>
       <c r="D92" t="n">
         <v>0.8</v>
@@ -2636,7 +2633,7 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>100.91</v>
+        <v>101.02</v>
       </c>
       <c r="D101" t="n">
         <v>1.325</v>
@@ -2659,7 +2656,7 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>104.77</v>
+        <v>104.8</v>
       </c>
       <c r="D102" t="n">
         <v>2</v>
@@ -2682,7 +2679,7 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>100.544</v>
+        <v>100.535</v>
       </c>
       <c r="D103" t="n">
         <v>1.75</v>
@@ -2705,7 +2702,7 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>101.42</v>
+        <v>101.51</v>
       </c>
       <c r="D104" t="n">
         <v>0.8</v>
@@ -2728,7 +2725,7 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>107.99</v>
+        <v>108.14</v>
       </c>
       <c r="D105" t="n">
         <v>2.2</v>
@@ -2751,7 +2748,7 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>104.88</v>
+        <v>105.08</v>
       </c>
       <c r="D106" t="n">
         <v>1.925</v>
@@ -2774,7 +2771,7 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>102.78</v>
+        <v>101.89</v>
       </c>
       <c r="D107" t="n">
         <v>1.7</v>
@@ -2814,7 +2811,7 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>103.69</v>
+        <v>103.5</v>
       </c>
       <c r="D109" t="n">
         <v>2.225</v>
@@ -2837,7 +2834,7 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>102.34</v>
+        <v>102.36</v>
       </c>
       <c r="D110" t="n">
         <v>1</v>
@@ -2860,7 +2857,7 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>100.63</v>
+        <v>100.32</v>
       </c>
       <c r="D111" t="n">
         <v>2.25</v>
@@ -2883,7 +2880,7 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>101.11</v>
+        <v>101.09</v>
       </c>
       <c r="D112" t="n">
         <v>1.9</v>
@@ -2906,7 +2903,7 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>106.02</v>
+        <v>106.13</v>
       </c>
       <c r="D113" t="n">
         <v>2</v>
@@ -2929,7 +2926,7 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>104.28</v>
+        <v>104.37</v>
       </c>
       <c r="D114" t="n">
         <v>1.85</v>
@@ -2951,6 +2948,9 @@
           <t>Btpi Tf 1.5% Mg29 Eur</t>
         </is>
       </c>
+      <c r="C115" t="n">
+        <v>101.98</v>
+      </c>
       <c r="D115" t="n">
         <v>0.75</v>
       </c>
@@ -2972,7 +2972,7 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>107.39</v>
+        <v>107.46</v>
       </c>
       <c r="D116" t="n">
         <v>2.175</v>
@@ -2995,7 +2995,7 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>102.81</v>
+        <v>102.86</v>
       </c>
       <c r="D117" t="n">
         <v>2</v>
@@ -3018,7 +3018,7 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>102.68</v>
+        <v>102.6</v>
       </c>
       <c r="D118" t="n">
         <v>1.2</v>
@@ -3041,7 +3041,7 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>104.04</v>
+        <v>104.16</v>
       </c>
       <c r="D119" t="n">
         <v>1.9</v>
@@ -3063,6 +3063,9 @@
           <t>Btpstripital Zc Ott39</t>
         </is>
       </c>
+      <c r="C120" t="n">
+        <v>56.72</v>
+      </c>
       <c r="E120" t="inlineStr">
         <is>
           <t>01-10-39</t>
@@ -3081,7 +3084,7 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>101.79</v>
+        <v>101.83</v>
       </c>
       <c r="D121" t="n">
         <v>1.925</v>
@@ -3104,7 +3107,7 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>100.15</v>
+        <v>100.122</v>
       </c>
       <c r="D122" t="n">
         <v>1.8</v>
@@ -3127,7 +3130,7 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>106.17</v>
+        <v>106.18</v>
       </c>
       <c r="D123" t="n">
         <v>2.1</v>
@@ -3150,7 +3153,7 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>105.61</v>
+        <v>105.8</v>
       </c>
       <c r="D124" t="n">
         <v>2</v>
@@ -3173,7 +3176,7 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>105.17</v>
+        <v>105.23</v>
       </c>
       <c r="D125" t="n">
         <v>1.025</v>
@@ -3196,7 +3199,7 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>105.28</v>
+        <v>105.45</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -3216,7 +3219,7 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>101.14</v>
+        <v>101.19</v>
       </c>
       <c r="D127" t="n">
         <v>1.475</v>
@@ -3239,7 +3242,7 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>103.06</v>
+        <v>103.21</v>
       </c>
       <c r="D128" t="n">
         <v>1.75</v>
@@ -3262,7 +3265,7 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>102.28</v>
+        <v>102.25</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -3282,7 +3285,7 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>103.55</v>
+        <v>103.99</v>
       </c>
       <c r="D130" t="n">
         <v>0.8125</v>
@@ -3305,7 +3308,7 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>100.467</v>
+        <v>100.463</v>
       </c>
       <c r="D131" t="n">
         <v>1.6</v>
@@ -3328,7 +3331,7 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>102.81</v>
+        <v>102.99</v>
       </c>
       <c r="D132" t="n">
         <v>1.675</v>
@@ -3351,7 +3354,7 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>103.38</v>
+        <v>103.44</v>
       </c>
       <c r="D133" t="n">
         <v>1.925</v>
@@ -3374,7 +3377,7 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>98.7</v>
+        <v>98.81999999999999</v>
       </c>
       <c r="D134" t="n">
         <v>0.9</v>
@@ -3397,7 +3400,7 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>103.36</v>
+        <v>103.57</v>
       </c>
       <c r="D135" t="n">
         <v>0.8375</v>
@@ -3420,7 +3423,7 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>102.64</v>
+        <v>102.72</v>
       </c>
       <c r="D136" t="n">
         <v>1.725</v>
@@ -3443,7 +3446,7 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>102.86</v>
+        <v>103.03</v>
       </c>
       <c r="D137" t="n">
         <v>2.025</v>
@@ -3466,7 +3469,7 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>102.28</v>
+        <v>102.35</v>
       </c>
       <c r="D138" t="n">
         <v>1.725</v>
@@ -3489,7 +3492,7 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>101</v>
+        <v>101.006</v>
       </c>
       <c r="D139" t="n">
         <v>1.55</v>
@@ -3512,7 +3515,7 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>102.9</v>
+        <v>103.08</v>
       </c>
       <c r="D140" t="n">
         <v>1.925</v>
@@ -3535,7 +3538,7 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>101.48</v>
+        <v>101.59</v>
       </c>
       <c r="D141" t="n">
         <v>1.5</v>
@@ -3558,7 +3561,7 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>96.84999999999999</v>
+        <v>96.48999999999999</v>
       </c>
       <c r="D142" t="n">
         <v>2.15</v>
@@ -3581,7 +3584,7 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>100.71</v>
+        <v>100.94</v>
       </c>
       <c r="D143" t="n">
         <v>1.575</v>
@@ -3604,7 +3607,7 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>100.97</v>
+        <v>101.05</v>
       </c>
       <c r="D144" t="n">
         <v>1.35</v>
@@ -3627,7 +3630,7 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>100.78</v>
+        <v>100.98</v>
       </c>
       <c r="D145" t="n">
         <v>1.825</v>
@@ -3650,7 +3653,7 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>98.7</v>
+        <v>98.45999999999999</v>
       </c>
       <c r="D146" t="n">
         <v>2.05</v>
@@ -3696,7 +3699,7 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>100.44</v>
+        <v>100.54</v>
       </c>
       <c r="D148" t="n">
         <v>0.7125</v>
@@ -3719,7 +3722,7 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>98.08</v>
+        <v>98.04000000000001</v>
       </c>
       <c r="D149" t="n">
         <v>1.925</v>
@@ -3742,7 +3745,7 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>100.82</v>
+        <v>101.01</v>
       </c>
       <c r="D150" t="n">
         <v>1.475</v>
@@ -3765,7 +3768,7 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>100.81</v>
+        <v>100.87</v>
       </c>
       <c r="D151" t="n">
         <v>1.325</v>
@@ -3788,7 +3791,7 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>100.69</v>
+        <v>100.86</v>
       </c>
       <c r="D152" t="n">
         <v>1.625</v>
@@ -3811,7 +3814,7 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>97.3</v>
+        <v>97.12</v>
       </c>
       <c r="D153" t="n">
         <v>1.275</v>
@@ -3834,7 +3837,7 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>100.18</v>
+        <v>100.27</v>
       </c>
       <c r="D154" t="n">
         <v>1.49508</v>
@@ -3857,7 +3860,7 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>100.29</v>
+        <v>100.45</v>
       </c>
       <c r="D155" t="n">
         <v>0.925</v>
@@ -3880,7 +3883,7 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>99.40000000000001</v>
+        <v>99.56999999999999</v>
       </c>
       <c r="D156" t="n">
         <v>0.82623</v>
@@ -3903,10 +3906,10 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>99.93000000000001</v>
+        <v>99.83</v>
       </c>
       <c r="D157" t="n">
-        <v>0.34807</v>
+        <v>1.05</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
@@ -3926,7 +3929,7 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>99.36</v>
+        <v>99.47</v>
       </c>
       <c r="D158" t="n">
         <v>0.55</v>
@@ -3949,7 +3952,7 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>99.56</v>
+        <v>99.73</v>
       </c>
       <c r="D159" t="n">
         <v>1.175</v>
